--- a/data/pca/factorExposure/factorExposure_2011-05-13.xlsx
+++ b/data/pca/factorExposure/factorExposure_2011-05-13.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="115">
   <si>
     <t>factor1</t>
   </si>
@@ -35,6 +35,21 @@
   </si>
   <si>
     <t>factor7</t>
+  </si>
+  <si>
+    <t>factor8</t>
+  </si>
+  <si>
+    <t>factor9</t>
+  </si>
+  <si>
+    <t>factor10</t>
+  </si>
+  <si>
+    <t>factor11</t>
+  </si>
+  <si>
+    <t>factor12</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -701,13 +716,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H104"/>
+  <dimension ref="A1:M104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:13">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -729,36 +744,66 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B2">
-        <v>-0.00697052168170544</v>
+        <v>0.01386454483450876</v>
       </c>
       <c r="C2">
-        <v>-0.006794956432312978</v>
+        <v>-0.00413998047327846</v>
       </c>
       <c r="D2">
-        <v>-0.04931248349162528</v>
+        <v>0.003453641437501067</v>
       </c>
       <c r="E2">
-        <v>0.0001814233210798433</v>
+        <v>-0.02554768805369017</v>
       </c>
       <c r="F2">
-        <v>-0.008587886189694034</v>
+        <v>0.002675988364075434</v>
       </c>
       <c r="G2">
-        <v>-0.03495102238645627</v>
+        <v>0.01189593666075004</v>
       </c>
       <c r="H2">
-        <v>0.0247311186004619</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>-0.02414004514755541</v>
+      </c>
+      <c r="I2">
+        <v>0.04084430460358755</v>
+      </c>
+      <c r="J2">
+        <v>0.02038719330429142</v>
+      </c>
+      <c r="K2">
+        <v>0.03162804524270955</v>
+      </c>
+      <c r="L2">
+        <v>0.02416725772804765</v>
+      </c>
+      <c r="M2">
+        <v>-0.009019031714919261</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -781,36 +826,66 @@
       <c r="H3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:8">
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B4">
-        <v>-0.08376978482816023</v>
+        <v>0.1095546170982722</v>
       </c>
       <c r="C4">
-        <v>0.04911665685383103</v>
+        <v>0.0743579491589105</v>
       </c>
       <c r="D4">
-        <v>-0.02987379412501383</v>
+        <v>0.003732557500700997</v>
       </c>
       <c r="E4">
-        <v>-0.03511499195798668</v>
+        <v>-0.03545673758442592</v>
       </c>
       <c r="F4">
-        <v>-0.02540277591215212</v>
+        <v>-0.1581081693189386</v>
       </c>
       <c r="G4">
-        <v>-0.02714627785827241</v>
+        <v>-0.003072417251303568</v>
       </c>
       <c r="H4">
-        <v>-0.02374887926410814</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>-0.006674931719709788</v>
+      </c>
+      <c r="I4">
+        <v>-0.01749355813669577</v>
+      </c>
+      <c r="J4">
+        <v>-0.03169568867901516</v>
+      </c>
+      <c r="K4">
+        <v>-0.08841134516590746</v>
+      </c>
+      <c r="L4">
+        <v>0.02644557951981676</v>
+      </c>
+      <c r="M4">
+        <v>0.07651006657297309</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -833,296 +908,476 @@
       <c r="H5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:8">
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B6">
-        <v>-0.1339087783794488</v>
+        <v>0.1330175486743325</v>
       </c>
       <c r="C6">
-        <v>0.03553298941651047</v>
+        <v>0.05257202454322546</v>
       </c>
       <c r="D6">
-        <v>-0.04527180280043138</v>
+        <v>0.009877208331704131</v>
       </c>
       <c r="E6">
-        <v>-0.06293683356794465</v>
+        <v>0.000932682673456392</v>
       </c>
       <c r="F6">
-        <v>0.1112912767711265</v>
+        <v>-0.006460075230087731</v>
       </c>
       <c r="G6">
-        <v>0.1271310145798549</v>
+        <v>-0.1129557174412929</v>
       </c>
       <c r="H6">
-        <v>-0.03890883671136452</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>-0.04149326663090335</v>
+      </c>
+      <c r="I6">
+        <v>-0.2775695492874823</v>
+      </c>
+      <c r="J6">
+        <v>-0.332478143435633</v>
+      </c>
+      <c r="K6">
+        <v>0.05823932560399623</v>
+      </c>
+      <c r="L6">
+        <v>0.1864538312526028</v>
+      </c>
+      <c r="M6">
+        <v>-0.03536664121595513</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B7">
-        <v>-0.07854393621494707</v>
+        <v>0.0710415165432501</v>
       </c>
       <c r="C7">
-        <v>0.04635669775769924</v>
+        <v>0.06146711092202596</v>
       </c>
       <c r="D7">
-        <v>-0.04264120933046714</v>
+        <v>0.002462166781128578</v>
       </c>
       <c r="E7">
-        <v>-0.04586554905030431</v>
+        <v>-0.04341754516858658</v>
       </c>
       <c r="F7">
-        <v>0.03933130787558693</v>
+        <v>-0.0389529043052083</v>
       </c>
       <c r="G7">
-        <v>-0.001133384510395713</v>
+        <v>0.002599053885980357</v>
       </c>
       <c r="H7">
-        <v>0.02637244921390705</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>0.01767193967306294</v>
+      </c>
+      <c r="I7">
+        <v>0.003209374378381159</v>
+      </c>
+      <c r="J7">
+        <v>0.05343040941930786</v>
+      </c>
+      <c r="K7">
+        <v>-0.1082667975848857</v>
+      </c>
+      <c r="L7">
+        <v>-0.0179221594459866</v>
+      </c>
+      <c r="M7">
+        <v>-0.04904433382610424</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B8">
-        <v>-0.03725642327284995</v>
+        <v>0.04175099225263868</v>
       </c>
       <c r="C8">
-        <v>0.003830767535145111</v>
+        <v>0.01765241424868572</v>
       </c>
       <c r="D8">
-        <v>-0.05349850607375597</v>
+        <v>0.008866953157320641</v>
       </c>
       <c r="E8">
-        <v>-0.05772883471580865</v>
+        <v>-0.01394702086714946</v>
       </c>
       <c r="F8">
-        <v>-0.02634082861578212</v>
+        <v>-0.143981670365859</v>
       </c>
       <c r="G8">
-        <v>-0.07794755276876919</v>
+        <v>0.005976633662778418</v>
       </c>
       <c r="H8">
-        <v>0.06900826361253365</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>-0.0507523479648262</v>
+      </c>
+      <c r="I8">
+        <v>-0.06835268949653728</v>
+      </c>
+      <c r="J8">
+        <v>-0.006114365038579642</v>
+      </c>
+      <c r="K8">
+        <v>-0.07281444857036128</v>
+      </c>
+      <c r="L8">
+        <v>0.06344422669243371</v>
+      </c>
+      <c r="M8">
+        <v>0.05705849549721399</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="B9">
-        <v>-0.07797350461552416</v>
+        <v>0.08333350233634026</v>
       </c>
       <c r="C9">
-        <v>0.04978444013284943</v>
+        <v>0.06394290462997797</v>
       </c>
       <c r="D9">
-        <v>-0.03338898716875516</v>
+        <v>-0.01253855587430619</v>
       </c>
       <c r="E9">
-        <v>-0.02681319776943674</v>
+        <v>-0.0262627610773908</v>
       </c>
       <c r="F9">
-        <v>-0.01293822729668445</v>
+        <v>-0.1409333833318009</v>
       </c>
       <c r="G9">
-        <v>-0.03246706229791554</v>
+        <v>-0.007502595902594899</v>
       </c>
       <c r="H9">
-        <v>0.02181565734120127</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+        <v>0.0135012141114188</v>
+      </c>
+      <c r="I9">
+        <v>-0.008508468879132825</v>
+      </c>
+      <c r="J9">
+        <v>-0.002960280895797639</v>
+      </c>
+      <c r="K9">
+        <v>-0.05925660059669428</v>
+      </c>
+      <c r="L9">
+        <v>0.03464064314570739</v>
+      </c>
+      <c r="M9">
+        <v>0.009415126050848766</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B10">
-        <v>-0.04541605381338777</v>
+        <v>0.106852987539751</v>
       </c>
       <c r="C10">
-        <v>-0.1372197879756964</v>
+        <v>-0.1632318451389791</v>
       </c>
       <c r="D10">
-        <v>-0.08112609253439414</v>
+        <v>0.004284844834780033</v>
       </c>
       <c r="E10">
-        <v>-0.02907943272225046</v>
+        <v>-0.05162740739308037</v>
       </c>
       <c r="F10">
-        <v>0.04539921252273321</v>
+        <v>0.01280677406648528</v>
       </c>
       <c r="G10">
-        <v>0.01502706081589789</v>
+        <v>-0.02477523968625435</v>
       </c>
       <c r="H10">
-        <v>-0.01236401786232697</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+        <v>0.0327884891822285</v>
+      </c>
+      <c r="I10">
+        <v>-0.001496708498272289</v>
+      </c>
+      <c r="J10">
+        <v>-0.01251190838587802</v>
+      </c>
+      <c r="K10">
+        <v>0.0007011595169982713</v>
+      </c>
+      <c r="L10">
+        <v>-0.04747607578179631</v>
+      </c>
+      <c r="M10">
+        <v>-0.09873915863748747</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="B11">
-        <v>-0.06746039046044339</v>
+        <v>0.07021990470295633</v>
       </c>
       <c r="C11">
-        <v>0.06650358257539607</v>
+        <v>0.06876985037088407</v>
       </c>
       <c r="D11">
-        <v>-0.008040361287665913</v>
+        <v>-0.02759242502391911</v>
       </c>
       <c r="E11">
-        <v>0.009456934160280716</v>
+        <v>0.006119957081726924</v>
       </c>
       <c r="F11">
-        <v>0.00313870546208583</v>
+        <v>-0.118893160721643</v>
       </c>
       <c r="G11">
-        <v>-0.1174760169168441</v>
+        <v>0.0110623785074135</v>
       </c>
       <c r="H11">
-        <v>0.07156939301869021</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
+        <v>0.05655351551087653</v>
+      </c>
+      <c r="I11">
+        <v>0.04161186520612979</v>
+      </c>
+      <c r="J11">
+        <v>0.08797471096807215</v>
+      </c>
+      <c r="K11">
+        <v>0.02663100670974448</v>
+      </c>
+      <c r="L11">
+        <v>0.03022527949328021</v>
+      </c>
+      <c r="M11">
+        <v>-0.1068181564042258</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="B12">
-        <v>-0.06282475831016217</v>
+        <v>0.06483124657221764</v>
       </c>
       <c r="C12">
-        <v>0.03341966201988716</v>
+        <v>0.05905086239418423</v>
       </c>
       <c r="D12">
-        <v>0.005390933088961858</v>
+        <v>-0.03066992929162773</v>
       </c>
       <c r="E12">
-        <v>-0.03510039649225325</v>
+        <v>-0.009619979252901917</v>
       </c>
       <c r="F12">
-        <v>0.01311067768567861</v>
+        <v>-0.1212729141360993</v>
       </c>
       <c r="G12">
-        <v>-0.1006165155415493</v>
+        <v>0.02801978617253255</v>
       </c>
       <c r="H12">
-        <v>0.09128990375958686</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
+        <v>0.0538789597414471</v>
+      </c>
+      <c r="I12">
+        <v>5.082442663349017e-06</v>
+      </c>
+      <c r="J12">
+        <v>0.08680728414258414</v>
+      </c>
+      <c r="K12">
+        <v>0.007408527181953695</v>
+      </c>
+      <c r="L12">
+        <v>0.05713299239235592</v>
+      </c>
+      <c r="M12">
+        <v>-0.1097826755053584</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="B13">
-        <v>-0.05523592570753011</v>
+        <v>0.04395363974091449</v>
       </c>
       <c r="C13">
-        <v>0.004025063880911487</v>
+        <v>0.03183698614089064</v>
       </c>
       <c r="D13">
-        <v>-0.00164695233850035</v>
+        <v>0.01670188505680167</v>
       </c>
       <c r="E13">
-        <v>-0.01846889853035237</v>
+        <v>-0.01922652706464576</v>
       </c>
       <c r="F13">
-        <v>-0.0457085673492161</v>
+        <v>-0.04770285047806454</v>
       </c>
       <c r="G13">
-        <v>-0.01080669649709861</v>
+        <v>0.005241767425004921</v>
       </c>
       <c r="H13">
-        <v>0.08305434281497601</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
+        <v>-0.01803340323598845</v>
+      </c>
+      <c r="I13">
+        <v>-0.01315817147156135</v>
+      </c>
+      <c r="J13">
+        <v>0.00708467068660854</v>
+      </c>
+      <c r="K13">
+        <v>-0.04762366987691823</v>
+      </c>
+      <c r="L13">
+        <v>-0.009885648812909828</v>
+      </c>
+      <c r="M13">
+        <v>0.03665024157528279</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="B14">
-        <v>-0.05424048499817583</v>
+        <v>0.03679445830432121</v>
       </c>
       <c r="C14">
-        <v>0.01370661475780818</v>
+        <v>0.02239093823123324</v>
       </c>
       <c r="D14">
-        <v>-0.01535414436629077</v>
+        <v>-0.01479029223335043</v>
       </c>
       <c r="E14">
-        <v>-0.03273255051590955</v>
+        <v>-0.003914528202668264</v>
       </c>
       <c r="F14">
-        <v>0.005084414606191761</v>
+        <v>-0.07086271095584808</v>
       </c>
       <c r="G14">
-        <v>0.004380740937975179</v>
+        <v>0.01623844314868264</v>
       </c>
       <c r="H14">
-        <v>0.03670928854749928</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+        <v>-0.02256195980162736</v>
+      </c>
+      <c r="I14">
+        <v>-0.006389961842341147</v>
+      </c>
+      <c r="J14">
+        <v>-0.03576883072104164</v>
+      </c>
+      <c r="K14">
+        <v>-0.09990513780079179</v>
+      </c>
+      <c r="L14">
+        <v>0.03345305037658333</v>
+      </c>
+      <c r="M14">
+        <v>0.02983206686520215</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="B15">
-        <v>-0.03902728735641696</v>
+        <v>0.02525458926004673</v>
       </c>
       <c r="C15">
-        <v>-0.009486958371142452</v>
+        <v>0.01313825048476458</v>
       </c>
       <c r="D15">
-        <v>-0.002291656955950958</v>
+        <v>0.05029462141207047</v>
       </c>
       <c r="E15">
-        <v>-0.02348310344485837</v>
+        <v>-0.01711995248180193</v>
       </c>
       <c r="F15">
-        <v>-0.01580969845268675</v>
+        <v>-0.009346684107976434</v>
       </c>
       <c r="G15">
-        <v>0.01021086445486713</v>
+        <v>-0.0316366896722681</v>
       </c>
       <c r="H15">
-        <v>-0.01204910708420591</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
+        <v>0.003651860780046037</v>
+      </c>
+      <c r="I15">
+        <v>0.002108378014256244</v>
+      </c>
+      <c r="J15">
+        <v>-0.04871863507444173</v>
+      </c>
+      <c r="K15">
+        <v>-0.0715220592329197</v>
+      </c>
+      <c r="L15">
+        <v>-0.01220771034928069</v>
+      </c>
+      <c r="M15">
+        <v>0.005077834116111672</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="B16">
-        <v>-0.06929582349602838</v>
+        <v>0.07385941294080793</v>
       </c>
       <c r="C16">
-        <v>0.07457054720292559</v>
+        <v>0.07199481373319025</v>
       </c>
       <c r="D16">
-        <v>-0.01729667351643992</v>
+        <v>-0.02320710462842244</v>
       </c>
       <c r="E16">
-        <v>-0.02852312980697424</v>
+        <v>-0.00386039071079005</v>
       </c>
       <c r="F16">
-        <v>-0.02803084473294822</v>
+        <v>-0.1113385295177828</v>
       </c>
       <c r="G16">
-        <v>-0.07931748755464232</v>
+        <v>0.02797424346231531</v>
       </c>
       <c r="H16">
-        <v>0.07508496336857394</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
+        <v>0.04737924672681489</v>
+      </c>
+      <c r="I16">
+        <v>0.03761100790172398</v>
+      </c>
+      <c r="J16">
+        <v>0.09389710429757062</v>
+      </c>
+      <c r="K16">
+        <v>-0.001179356235923346</v>
+      </c>
+      <c r="L16">
+        <v>0.05005458108644865</v>
+      </c>
+      <c r="M16">
+        <v>-0.1076685320050353</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1145,10 +1400,25 @@
       <c r="H17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:8">
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1171,10 +1441,25 @@
       <c r="H18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:8">
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -1197,192 +1482,312 @@
       <c r="H19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:8">
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="B20">
-        <v>-0.04692782735621207</v>
+        <v>0.04400633889188591</v>
       </c>
       <c r="C20">
-        <v>0.03772233687978577</v>
+        <v>0.03353546605281344</v>
       </c>
       <c r="D20">
-        <v>-0.008762040032335676</v>
+        <v>0.01760665115458919</v>
       </c>
       <c r="E20">
-        <v>-0.01068755341174007</v>
+        <v>-0.02031611122117169</v>
       </c>
       <c r="F20">
-        <v>-0.01139925260057327</v>
+        <v>-0.07208924465872969</v>
       </c>
       <c r="G20">
-        <v>-0.02990978898968461</v>
+        <v>0.02803007708526407</v>
       </c>
       <c r="H20">
-        <v>0.05337207313003984</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
+        <v>0.005828846394992504</v>
+      </c>
+      <c r="I20">
+        <v>-0.02633119157196331</v>
+      </c>
+      <c r="J20">
+        <v>-0.002250905870543398</v>
+      </c>
+      <c r="K20">
+        <v>-0.06547513651874234</v>
+      </c>
+      <c r="L20">
+        <v>0.01622468180710905</v>
+      </c>
+      <c r="M20">
+        <v>-0.006742620685338019</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="B21">
-        <v>-0.02677290342724941</v>
+        <v>0.02459267868699758</v>
       </c>
       <c r="C21">
-        <v>0.03815630521638178</v>
+        <v>0.02463545075488052</v>
       </c>
       <c r="D21">
-        <v>0.003098607661226547</v>
+        <v>0.006260818439641177</v>
       </c>
       <c r="E21">
-        <v>-0.05202409940327899</v>
+        <v>-0.0006354847990395471</v>
       </c>
       <c r="F21">
-        <v>0.08390020385545334</v>
+        <v>-0.07293736537737359</v>
       </c>
       <c r="G21">
-        <v>0.02622296603325868</v>
+        <v>-0.03859305506222201</v>
       </c>
       <c r="H21">
-        <v>-0.1068493373616639</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
+        <v>0.1042110499974382</v>
+      </c>
+      <c r="I21">
+        <v>-0.05673839049155813</v>
+      </c>
+      <c r="J21">
+        <v>-0.0258553911516889</v>
+      </c>
+      <c r="K21">
+        <v>-0.111892589936216</v>
+      </c>
+      <c r="L21">
+        <v>-0.07429242163066214</v>
+      </c>
+      <c r="M21">
+        <v>-0.0480077249292999</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="B22">
-        <v>-0.02538391563288769</v>
+        <v>0.04680537426918883</v>
       </c>
       <c r="C22">
-        <v>0.03565608143881963</v>
+        <v>0.02623878786716486</v>
       </c>
       <c r="D22">
-        <v>0.04493160925375157</v>
+        <v>0.6278213384859891</v>
       </c>
       <c r="E22">
-        <v>-0.5296112919706053</v>
+        <v>-0.184623505818781</v>
       </c>
       <c r="F22">
-        <v>-0.2424655989064559</v>
+        <v>0.07123047885938201</v>
       </c>
       <c r="G22">
-        <v>0.1236028806339874</v>
+        <v>0.1561455286882988</v>
       </c>
       <c r="H22">
-        <v>-0.2654855179135872</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
+        <v>0.06233979900136128</v>
+      </c>
+      <c r="I22">
+        <v>-0.01565853881423903</v>
+      </c>
+      <c r="J22">
+        <v>0.01842391438267815</v>
+      </c>
+      <c r="K22">
+        <v>0.05045472625751457</v>
+      </c>
+      <c r="L22">
+        <v>-0.01489943668587287</v>
+      </c>
+      <c r="M22">
+        <v>-0.0007462883419902418</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="B23">
-        <v>-0.02554603539549088</v>
+        <v>0.04726104259437727</v>
       </c>
       <c r="C23">
-        <v>0.03551350963904241</v>
+        <v>0.02695521737730045</v>
       </c>
       <c r="D23">
-        <v>0.04390173585191638</v>
+        <v>0.629582604556892</v>
       </c>
       <c r="E23">
-        <v>-0.5290599995493686</v>
+        <v>-0.1848677365478552</v>
       </c>
       <c r="F23">
-        <v>-0.2431871575178505</v>
+        <v>0.06836022340288353</v>
       </c>
       <c r="G23">
-        <v>0.124754149480365</v>
+        <v>0.1567187637463037</v>
       </c>
       <c r="H23">
-        <v>-0.2652957347307221</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
+        <v>0.05954324843398642</v>
+      </c>
+      <c r="I23">
+        <v>-0.01661471736933951</v>
+      </c>
+      <c r="J23">
+        <v>0.01666834101663091</v>
+      </c>
+      <c r="K23">
+        <v>0.0528222972675444</v>
+      </c>
+      <c r="L23">
+        <v>-0.01275174359071382</v>
+      </c>
+      <c r="M23">
+        <v>-0.002347453233743496</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="B24">
-        <v>-0.07640047644391094</v>
+        <v>0.0778623208959008</v>
       </c>
       <c r="C24">
-        <v>0.05490472886170557</v>
+        <v>0.06456021439483883</v>
       </c>
       <c r="D24">
-        <v>-0.01437428840335976</v>
+        <v>-0.02001570510858349</v>
       </c>
       <c r="E24">
-        <v>-0.03490613799782865</v>
+        <v>-0.005008582155489908</v>
       </c>
       <c r="F24">
-        <v>-0.005197737563158247</v>
+        <v>-0.1085128923697814</v>
       </c>
       <c r="G24">
-        <v>-0.08765178597677556</v>
+        <v>0.02537578147745634</v>
       </c>
       <c r="H24">
-        <v>0.06790689661118486</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
+        <v>0.06388591818359278</v>
+      </c>
+      <c r="I24">
+        <v>0.05248611890837471</v>
+      </c>
+      <c r="J24">
+        <v>0.0845280723920394</v>
+      </c>
+      <c r="K24">
+        <v>0.03002358954780774</v>
+      </c>
+      <c r="L24">
+        <v>0.05071092445691175</v>
+      </c>
+      <c r="M24">
+        <v>-0.08640440660200514</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="B25">
-        <v>-0.06629046099854838</v>
+        <v>0.0744281716972905</v>
       </c>
       <c r="C25">
-        <v>0.02919528069298506</v>
+        <v>0.04869811366292309</v>
       </c>
       <c r="D25">
-        <v>-0.01627319937824951</v>
+        <v>-0.03655211113435707</v>
       </c>
       <c r="E25">
-        <v>-0.02563438175013638</v>
+        <v>-0.008103360046848564</v>
       </c>
       <c r="F25">
-        <v>0.001474231133539127</v>
+        <v>-0.1136061133829668</v>
       </c>
       <c r="G25">
-        <v>-0.08612743628525901</v>
+        <v>0.02363389204646242</v>
       </c>
       <c r="H25">
-        <v>0.07041656201938903</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
+        <v>0.04517299655615775</v>
+      </c>
+      <c r="I25">
+        <v>0.03450250125330625</v>
+      </c>
+      <c r="J25">
+        <v>0.08198737259214649</v>
+      </c>
+      <c r="K25">
+        <v>0.02344912798115759</v>
+      </c>
+      <c r="L25">
+        <v>0.06312581903042447</v>
+      </c>
+      <c r="M25">
+        <v>-0.1003643572935473</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13">
       <c r="A26" s="1" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="B26">
-        <v>-0.05001911963840733</v>
+        <v>0.04228876884974615</v>
       </c>
       <c r="C26">
-        <v>0.03607069977859253</v>
+        <v>0.01503743987232947</v>
       </c>
       <c r="D26">
-        <v>-0.03228562686027019</v>
+        <v>0.008037908506187054</v>
       </c>
       <c r="E26">
-        <v>-0.004039059289785151</v>
+        <v>-0.004301698773743587</v>
       </c>
       <c r="F26">
-        <v>-0.01935574815891789</v>
+        <v>-0.04715709356195225</v>
       </c>
       <c r="G26">
-        <v>0.007978571618418502</v>
+        <v>0.02611770610400199</v>
       </c>
       <c r="H26">
-        <v>0.03961778499920113</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
+        <v>0.01603788868244116</v>
+      </c>
+      <c r="I26">
+        <v>0.001794358021622451</v>
+      </c>
+      <c r="J26">
+        <v>-0.04078953396592543</v>
+      </c>
+      <c r="K26">
+        <v>-0.1141092271424425</v>
+      </c>
+      <c r="L26">
+        <v>-0.03840375457288656</v>
+      </c>
+      <c r="M26">
+        <v>-0.02777464642778725</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13">
       <c r="A27" s="1" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1405,244 +1810,394 @@
       <c r="H27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:8">
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="K27">
+        <v>0</v>
+      </c>
+      <c r="L27">
+        <v>0</v>
+      </c>
+      <c r="M27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13">
       <c r="A28" s="1" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="B28">
-        <v>-0.08829521155227776</v>
+        <v>0.1420431496138101</v>
       </c>
       <c r="C28">
-        <v>-0.2905664997935508</v>
+        <v>-0.2884346834354743</v>
       </c>
       <c r="D28">
-        <v>-0.07363541576597797</v>
+        <v>-0.008814381311793795</v>
       </c>
       <c r="E28">
-        <v>-0.002145557564824888</v>
+        <v>-0.0122631136448287</v>
       </c>
       <c r="F28">
-        <v>0.0410353475420908</v>
+        <v>-0.007570333165765117</v>
       </c>
       <c r="G28">
-        <v>-0.001312136335346016</v>
+        <v>-0.004558461170341553</v>
       </c>
       <c r="H28">
-        <v>-0.04988117121926233</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
+        <v>0.008857746306451664</v>
+      </c>
+      <c r="I28">
+        <v>-0.01970896832123241</v>
+      </c>
+      <c r="J28">
+        <v>0.01273161764162689</v>
+      </c>
+      <c r="K28">
+        <v>-0.008572980612744346</v>
+      </c>
+      <c r="L28">
+        <v>-0.02262737750389365</v>
+      </c>
+      <c r="M28">
+        <v>0.01205425290898803</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13">
       <c r="A29" s="1" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="B29">
-        <v>-0.05361838223771539</v>
+        <v>0.03825249102555153</v>
       </c>
       <c r="C29">
-        <v>0.007131869662897077</v>
+        <v>0.02265822585818249</v>
       </c>
       <c r="D29">
-        <v>-0.007557263634014653</v>
+        <v>-0.009002170418714891</v>
       </c>
       <c r="E29">
-        <v>-0.03703854320772088</v>
+        <v>-0.007739644613651189</v>
       </c>
       <c r="F29">
-        <v>-0.02472835151008338</v>
+        <v>-0.06876705989705617</v>
       </c>
       <c r="G29">
-        <v>0.002135339241550057</v>
+        <v>0.03526448187011294</v>
       </c>
       <c r="H29">
-        <v>-0.004769140299147948</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
+        <v>-0.003130753506931773</v>
+      </c>
+      <c r="I29">
+        <v>-0.01602726107714832</v>
+      </c>
+      <c r="J29">
+        <v>-0.03069278170527209</v>
+      </c>
+      <c r="K29">
+        <v>-0.09664733316777287</v>
+      </c>
+      <c r="L29">
+        <v>0.02001191166337543</v>
+      </c>
+      <c r="M29">
+        <v>0.008151416949418113</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13">
       <c r="A30" s="1" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="B30">
-        <v>-0.1222079854571465</v>
+        <v>0.1040432705606692</v>
       </c>
       <c r="C30">
-        <v>0.03182973941323788</v>
+        <v>0.05399230465095621</v>
       </c>
       <c r="D30">
-        <v>-0.05000915982097025</v>
+        <v>-0.002810247103097745</v>
       </c>
       <c r="E30">
-        <v>-0.09946051496082288</v>
+        <v>0.006500286594915577</v>
       </c>
       <c r="F30">
-        <v>0.06123022521652457</v>
+        <v>-0.2012143519125711</v>
       </c>
       <c r="G30">
-        <v>-0.1766788025065985</v>
+        <v>0.2045472293402987</v>
       </c>
       <c r="H30">
-        <v>0.01535154163833683</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
+        <v>0.1380110107023124</v>
+      </c>
+      <c r="I30">
+        <v>-0.212901066759379</v>
+      </c>
+      <c r="J30">
+        <v>0.04113936478210675</v>
+      </c>
+      <c r="K30">
+        <v>0.0001030871262458352</v>
+      </c>
+      <c r="L30">
+        <v>0.1010863565217814</v>
+      </c>
+      <c r="M30">
+        <v>0.5555833152941589</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13">
       <c r="A31" s="1" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="B31">
-        <v>-0.05145908893464977</v>
+        <v>0.03810926415228363</v>
       </c>
       <c r="C31">
-        <v>0.01974226612389353</v>
+        <v>0.04627207008615629</v>
       </c>
       <c r="D31">
-        <v>0.01236029866288996</v>
+        <v>0.002103685631749098</v>
       </c>
       <c r="E31">
-        <v>-0.002504201418647252</v>
+        <v>0.001723334820776976</v>
       </c>
       <c r="F31">
-        <v>-0.02595148729281</v>
+        <v>-0.02557198140673285</v>
       </c>
       <c r="G31">
-        <v>0.03086094295163563</v>
+        <v>0.01105231833887541</v>
       </c>
       <c r="H31">
-        <v>0.03392686446471392</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
+        <v>-0.03450105997878483</v>
+      </c>
+      <c r="I31">
+        <v>0.02203232146979178</v>
+      </c>
+      <c r="J31">
+        <v>-0.003027545710521645</v>
+      </c>
+      <c r="K31">
+        <v>-0.03347884476771663</v>
+      </c>
+      <c r="L31">
+        <v>0.03605703574817953</v>
+      </c>
+      <c r="M31">
+        <v>-0.001070168181046882</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13">
       <c r="A32" s="1" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B32">
-        <v>-0.02361557703479313</v>
+        <v>0.04312358637226896</v>
       </c>
       <c r="C32">
-        <v>-0.009677228077241707</v>
+        <v>0.001548058151760847</v>
       </c>
       <c r="D32">
-        <v>-0.004626047697661646</v>
+        <v>-0.01222042917195812</v>
       </c>
       <c r="E32">
-        <v>-0.07275228305683924</v>
+        <v>0.02219159750986508</v>
       </c>
       <c r="F32">
-        <v>-0.09471869857677058</v>
+        <v>-0.08069349773641102</v>
       </c>
       <c r="G32">
-        <v>-0.05525403987405418</v>
+        <v>-0.005551607106673961</v>
       </c>
       <c r="H32">
-        <v>0.03092718232831945</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
+        <v>-0.000365729403091665</v>
+      </c>
+      <c r="I32">
+        <v>0.04463410509312845</v>
+      </c>
+      <c r="J32">
+        <v>0.01175358226383473</v>
+      </c>
+      <c r="K32">
+        <v>-0.06534057295071996</v>
+      </c>
+      <c r="L32">
+        <v>0.01300312422423166</v>
+      </c>
+      <c r="M32">
+        <v>0.1313893925645232</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13">
       <c r="A33" s="1" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="B33">
-        <v>-0.1164929514615963</v>
+        <v>0.09494285651792157</v>
       </c>
       <c r="C33">
-        <v>0.03412016385943296</v>
+        <v>0.05781121820370042</v>
       </c>
       <c r="D33">
-        <v>-0.003536012717396357</v>
+        <v>-0.0210047299867384</v>
       </c>
       <c r="E33">
-        <v>-0.0186858277278461</v>
+        <v>-0.002559331617835787</v>
       </c>
       <c r="F33">
-        <v>-0.06018345842222879</v>
+        <v>-0.07823000845355356</v>
       </c>
       <c r="G33">
-        <v>-0.03426245447084854</v>
+        <v>0.02485931518117683</v>
       </c>
       <c r="H33">
-        <v>0.05362561669966182</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8">
+        <v>0.005249733001893709</v>
+      </c>
+      <c r="I33">
+        <v>0.01124717825285461</v>
+      </c>
+      <c r="J33">
+        <v>-0.01653849392433989</v>
+      </c>
+      <c r="K33">
+        <v>-0.0266191060859463</v>
+      </c>
+      <c r="L33">
+        <v>0.02015745037185136</v>
+      </c>
+      <c r="M33">
+        <v>0.01999300236802266</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13">
       <c r="A34" s="1" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="B34">
-        <v>-0.05347389691413967</v>
+        <v>0.06328465993345253</v>
       </c>
       <c r="C34">
-        <v>0.05910688172393291</v>
+        <v>0.05728776470431943</v>
       </c>
       <c r="D34">
-        <v>-0.001016963382395925</v>
+        <v>-0.0256507287913029</v>
       </c>
       <c r="E34">
-        <v>-0.01271842309972143</v>
+        <v>0.003893766208869628</v>
       </c>
       <c r="F34">
-        <v>-0.006503478049608809</v>
+        <v>-0.1058082177577135</v>
       </c>
       <c r="G34">
-        <v>-0.06567081334465444</v>
+        <v>0.01795233610915617</v>
       </c>
       <c r="H34">
-        <v>0.05327349514737793</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8">
+        <v>0.03458648359972968</v>
+      </c>
+      <c r="I34">
+        <v>0.03286499984616002</v>
+      </c>
+      <c r="J34">
+        <v>0.08517906414295739</v>
+      </c>
+      <c r="K34">
+        <v>-0.02972578336292545</v>
+      </c>
+      <c r="L34">
+        <v>0.04327653074304855</v>
+      </c>
+      <c r="M34">
+        <v>-0.09984348392228938</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13">
       <c r="A35" s="1" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="B35">
-        <v>-0.04386896751077453</v>
+        <v>0.02307588111926795</v>
       </c>
       <c r="C35">
-        <v>0.02984373172152438</v>
+        <v>0.02238135434532795</v>
       </c>
       <c r="D35">
-        <v>0.006805284538276457</v>
+        <v>-0.003897900620923174</v>
       </c>
       <c r="E35">
-        <v>-0.01336556850091812</v>
+        <v>0.002273292020465987</v>
       </c>
       <c r="F35">
-        <v>0.02037717873143675</v>
+        <v>-0.03296759616258754</v>
       </c>
       <c r="G35">
-        <v>-0.01039002168923842</v>
+        <v>0.02535070325450119</v>
       </c>
       <c r="H35">
-        <v>0.05599673425083299</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8">
+        <v>0.02000727873962814</v>
+      </c>
+      <c r="I35">
+        <v>-0.01439801988837542</v>
+      </c>
+      <c r="J35">
+        <v>0.04149467103707447</v>
+      </c>
+      <c r="K35">
+        <v>-0.0790694837478014</v>
+      </c>
+      <c r="L35">
+        <v>0.0199728880909094</v>
+      </c>
+      <c r="M35">
+        <v>-0.0008804763857360927</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13">
       <c r="A36" s="1" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="B36">
-        <v>-0.03297775957736065</v>
+        <v>0.0264216664935111</v>
       </c>
       <c r="C36">
-        <v>0.01458539885616193</v>
+        <v>0.01338061033664087</v>
       </c>
       <c r="D36">
-        <v>-0.02253394971159123</v>
+        <v>0.009087887913878216</v>
       </c>
       <c r="E36">
-        <v>-0.02951881902668837</v>
+        <v>-0.01126524091495315</v>
       </c>
       <c r="F36">
-        <v>-0.0185221524473277</v>
+        <v>-0.06329298939858718</v>
       </c>
       <c r="G36">
-        <v>-0.01462205199226274</v>
+        <v>0.02150008264032804</v>
       </c>
       <c r="H36">
-        <v>0.06260449377227742</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8">
+        <v>0.01294836704120862</v>
+      </c>
+      <c r="I36">
+        <v>-0.007279949471258863</v>
+      </c>
+      <c r="J36">
+        <v>-0.0339148594966931</v>
+      </c>
+      <c r="K36">
+        <v>-0.03407950177107445</v>
+      </c>
+      <c r="L36">
+        <v>0.01958533678665486</v>
+      </c>
+      <c r="M36">
+        <v>-0.04049758076090299</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13">
       <c r="A37" s="1" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1665,114 +2220,189 @@
       <c r="H37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:8">
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
+      <c r="K37">
+        <v>0</v>
+      </c>
+      <c r="L37">
+        <v>0</v>
+      </c>
+      <c r="M37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13">
       <c r="A38" s="1" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="B38">
-        <v>-0.04812028359407106</v>
+        <v>0.02744502354906648</v>
       </c>
       <c r="C38">
-        <v>0.03586637592540969</v>
+        <v>0.04319482445671456</v>
       </c>
       <c r="D38">
-        <v>-0.002998612281357843</v>
+        <v>0.01467146959736474</v>
       </c>
       <c r="E38">
-        <v>-0.0233530497168024</v>
+        <v>-0.02170817029843543</v>
       </c>
       <c r="F38">
-        <v>-0.02997057035442127</v>
+        <v>0.05237598098439956</v>
       </c>
       <c r="G38">
-        <v>-0.03600114011355122</v>
+        <v>0.04544727529449394</v>
       </c>
       <c r="H38">
-        <v>-0.03046230203801619</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8">
+        <v>-0.01539724196286897</v>
+      </c>
+      <c r="I38">
+        <v>-0.009364340495659771</v>
+      </c>
+      <c r="J38">
+        <v>-0.006721553168037321</v>
+      </c>
+      <c r="K38">
+        <v>-0.04797470528286523</v>
+      </c>
+      <c r="L38">
+        <v>-0.08189325140011612</v>
+      </c>
+      <c r="M38">
+        <v>0.1175533462901995</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13">
       <c r="A39" s="1" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="B39">
-        <v>-0.1032106156244166</v>
+        <v>0.1064331416241778</v>
       </c>
       <c r="C39">
-        <v>0.07235387031155451</v>
+        <v>0.08615485537883143</v>
       </c>
       <c r="D39">
-        <v>0.002472659762948469</v>
+        <v>-0.08686991717150953</v>
       </c>
       <c r="E39">
-        <v>-0.02365070604235985</v>
+        <v>0.03527632188215544</v>
       </c>
       <c r="F39">
-        <v>0.001276793218742089</v>
+        <v>-0.1438627728477019</v>
       </c>
       <c r="G39">
-        <v>-0.1226534277148743</v>
+        <v>0.1229294764900022</v>
       </c>
       <c r="H39">
-        <v>0.04824905414511245</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8">
+        <v>0.06080209604879265</v>
+      </c>
+      <c r="I39">
+        <v>-0.002269107683180412</v>
+      </c>
+      <c r="J39">
+        <v>0.21181269478256</v>
+      </c>
+      <c r="K39">
+        <v>0.06517341671042876</v>
+      </c>
+      <c r="L39">
+        <v>0.08343634473670641</v>
+      </c>
+      <c r="M39">
+        <v>-0.01610871928792436</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13">
       <c r="A40" s="1" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="B40">
-        <v>-0.04740958034152752</v>
+        <v>0.0334022883321039</v>
       </c>
       <c r="C40">
-        <v>0.02850419552214672</v>
+        <v>0.05635317499574469</v>
       </c>
       <c r="D40">
-        <v>0.04269642470987316</v>
+        <v>0.03900399851191334</v>
       </c>
       <c r="E40">
-        <v>-0.1084634091884364</v>
+        <v>-0.007716941935310195</v>
       </c>
       <c r="F40">
-        <v>-0.02579784030635476</v>
+        <v>-0.101211389803227</v>
       </c>
       <c r="G40">
-        <v>-0.1505549760357061</v>
+        <v>0.001007260701506839</v>
       </c>
       <c r="H40">
-        <v>0.1476551173304094</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8">
+        <v>0.09812572189850199</v>
+      </c>
+      <c r="I40">
+        <v>0.002774471317501459</v>
+      </c>
+      <c r="J40">
+        <v>-0.02525565661690367</v>
+      </c>
+      <c r="K40">
+        <v>-0.03662848486536133</v>
+      </c>
+      <c r="L40">
+        <v>-0.105615057311015</v>
+      </c>
+      <c r="M40">
+        <v>0.0957454456078551</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13">
       <c r="A41" s="1" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="B41">
-        <v>-0.0436757917852457</v>
+        <v>0.03856130427507063</v>
       </c>
       <c r="C41">
-        <v>0.03965283194846286</v>
+        <v>0.03560055038461923</v>
       </c>
       <c r="D41">
-        <v>0.0007265460982875589</v>
+        <v>-0.01801287411920832</v>
       </c>
       <c r="E41">
-        <v>0.008447804511048687</v>
+        <v>-0.002414434028244342</v>
       </c>
       <c r="F41">
-        <v>-0.01506231744215531</v>
+        <v>-0.02076474549749353</v>
       </c>
       <c r="G41">
-        <v>-0.02910315826919118</v>
+        <v>0.02910374728825223</v>
       </c>
       <c r="H41">
-        <v>0.02218543024201086</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8">
+        <v>-0.0006674532132885367</v>
+      </c>
+      <c r="I41">
+        <v>-0.0008385826864563342</v>
+      </c>
+      <c r="J41">
+        <v>0.02417034887576789</v>
+      </c>
+      <c r="K41">
+        <v>-0.05917998909424813</v>
+      </c>
+      <c r="L41">
+        <v>-0.009471429750117787</v>
+      </c>
+      <c r="M41">
+        <v>0.002089076283639909</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13">
       <c r="A42" s="1" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1795,62 +2425,107 @@
       <c r="H42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:8">
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <v>0</v>
+      </c>
+      <c r="K42">
+        <v>0</v>
+      </c>
+      <c r="L42">
+        <v>0</v>
+      </c>
+      <c r="M42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13">
       <c r="A43" s="1" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="B43">
-        <v>-0.06250803688034229</v>
+        <v>0.05089948983227743</v>
       </c>
       <c r="C43">
-        <v>0.03331754052447242</v>
+        <v>0.03804833052843239</v>
       </c>
       <c r="D43">
-        <v>-0.01947542251502396</v>
+        <v>0.008504878965832532</v>
       </c>
       <c r="E43">
-        <v>-0.02687719219565584</v>
+        <v>-0.01598218577890655</v>
       </c>
       <c r="F43">
-        <v>-0.01641918591997546</v>
+        <v>-0.01161583400534755</v>
       </c>
       <c r="G43">
-        <v>-0.006156869054006855</v>
+        <v>0.05384976735029894</v>
       </c>
       <c r="H43">
-        <v>-0.006074070728886135</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8">
+        <v>-0.02385488304661534</v>
+      </c>
+      <c r="I43">
+        <v>-0.02295574470696483</v>
+      </c>
+      <c r="J43">
+        <v>0.04248397595053886</v>
+      </c>
+      <c r="K43">
+        <v>-0.04333271786165166</v>
+      </c>
+      <c r="L43">
+        <v>0.01659000464344993</v>
+      </c>
+      <c r="M43">
+        <v>-0.01297008194853493</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13">
       <c r="A44" s="1" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="B44">
-        <v>-0.05340996367679995</v>
+        <v>0.08572790568420244</v>
       </c>
       <c r="C44">
-        <v>0.02251094467359382</v>
+        <v>0.06431670296411683</v>
       </c>
       <c r="D44">
-        <v>-0.08510882838524965</v>
+        <v>0.05970489837619176</v>
       </c>
       <c r="E44">
-        <v>-0.06505118855855457</v>
+        <v>-0.08357541884632437</v>
       </c>
       <c r="F44">
-        <v>0.004255455609850323</v>
+        <v>-0.1679672798284255</v>
       </c>
       <c r="G44">
-        <v>-0.1115868447262956</v>
+        <v>0.0398945851587628</v>
       </c>
       <c r="H44">
-        <v>0.05657692428200245</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8">
+        <v>0.05284137419595058</v>
+      </c>
+      <c r="I44">
+        <v>0.03271675077625481</v>
+      </c>
+      <c r="J44">
+        <v>0.0100291149941711</v>
+      </c>
+      <c r="K44">
+        <v>-0.04530158998930021</v>
+      </c>
+      <c r="L44">
+        <v>-0.06170269319024659</v>
+      </c>
+      <c r="M44">
+        <v>0.02344693893917053</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13">
       <c r="A45" s="1" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1873,296 +2548,476 @@
       <c r="H45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:8">
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>0</v>
+      </c>
+      <c r="K45">
+        <v>0</v>
+      </c>
+      <c r="L45">
+        <v>0</v>
+      </c>
+      <c r="M45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13">
       <c r="A46" s="1" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="B46">
-        <v>-0.0402901197442086</v>
+        <v>0.03038125897729918</v>
       </c>
       <c r="C46">
-        <v>0.04595457315562544</v>
+        <v>0.02579901075350622</v>
       </c>
       <c r="D46">
-        <v>-0.01639078666462958</v>
+        <v>0.02472285572983702</v>
       </c>
       <c r="E46">
-        <v>-0.0532839730487266</v>
+        <v>-0.03904632438495979</v>
       </c>
       <c r="F46">
-        <v>-0.02235514625542899</v>
+        <v>-0.03929230506008889</v>
       </c>
       <c r="G46">
-        <v>-0.01129890304546285</v>
+        <v>0.04062035933751355</v>
       </c>
       <c r="H46">
-        <v>0.01229667351599073</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8">
+        <v>0.04388842334647414</v>
+      </c>
+      <c r="I46">
+        <v>0.02866083162315428</v>
+      </c>
+      <c r="J46">
+        <v>-0.03344993034753795</v>
+      </c>
+      <c r="K46">
+        <v>-0.1216039883903915</v>
+      </c>
+      <c r="L46">
+        <v>0.0504677411943446</v>
+      </c>
+      <c r="M46">
+        <v>0.01816585966941444</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13">
       <c r="A47" s="1" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="B47">
-        <v>-0.03495463392004464</v>
+        <v>0.04229783243478411</v>
       </c>
       <c r="C47">
-        <v>0.01525783500236522</v>
+        <v>0.0268935082571702</v>
       </c>
       <c r="D47">
-        <v>-0.005368411927718419</v>
+        <v>0.01593329841041192</v>
       </c>
       <c r="E47">
-        <v>-0.06318700386214074</v>
+        <v>-0.01359744743693099</v>
       </c>
       <c r="F47">
-        <v>-0.02051696402085926</v>
+        <v>-0.03786512730298718</v>
       </c>
       <c r="G47">
-        <v>0.01298599034396058</v>
+        <v>0.006731133634984539</v>
       </c>
       <c r="H47">
-        <v>0.02544041063726492</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8">
+        <v>-0.01352447001253765</v>
+      </c>
+      <c r="I47">
+        <v>-0.02432392639855084</v>
+      </c>
+      <c r="J47">
+        <v>-0.0246187519500856</v>
+      </c>
+      <c r="K47">
+        <v>-0.04988804798886157</v>
+      </c>
+      <c r="L47">
+        <v>-0.01248134037766609</v>
+      </c>
+      <c r="M47">
+        <v>-0.05226202667055192</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13">
       <c r="A48" s="1" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="B48">
-        <v>-0.04051741832102277</v>
+        <v>0.04199921147981723</v>
       </c>
       <c r="C48">
-        <v>0.01825084761566429</v>
+        <v>0.01806731962832928</v>
       </c>
       <c r="D48">
-        <v>0.004590793453350284</v>
+        <v>0.005888460681012086</v>
       </c>
       <c r="E48">
-        <v>-0.05354309128871652</v>
+        <v>-0.009447871949781278</v>
       </c>
       <c r="F48">
-        <v>-0.03343121589586116</v>
+        <v>-0.06691778111803259</v>
       </c>
       <c r="G48">
-        <v>0.003260578257052486</v>
+        <v>-0.002536636555212059</v>
       </c>
       <c r="H48">
-        <v>0.05024844856794076</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8">
+        <v>0.0425158220507818</v>
+      </c>
+      <c r="I48">
+        <v>-0.009779921549098699</v>
+      </c>
+      <c r="J48">
+        <v>-0.008190758170908627</v>
+      </c>
+      <c r="K48">
+        <v>-0.04962877091836093</v>
+      </c>
+      <c r="L48">
+        <v>0.04471389085837098</v>
+      </c>
+      <c r="M48">
+        <v>-0.03486155749409821</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13">
       <c r="A49" s="1" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="B49">
-        <v>-0.2310903063914419</v>
+        <v>0.2238709874553471</v>
       </c>
       <c r="C49">
-        <v>0.1134961476938588</v>
+        <v>0.07120871522458466</v>
       </c>
       <c r="D49">
-        <v>-0.03655278907874546</v>
+        <v>-0.06850933861908615</v>
       </c>
       <c r="E49">
-        <v>0.02657904341488928</v>
+        <v>-0.07262941017003424</v>
       </c>
       <c r="F49">
-        <v>0.1718567842224731</v>
+        <v>0.236457958408444</v>
       </c>
       <c r="G49">
-        <v>-0.003027589442690337</v>
+        <v>-0.09038485118828853</v>
       </c>
       <c r="H49">
-        <v>-0.1449077539753295</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8">
+        <v>0.1902400906541518</v>
+      </c>
+      <c r="I49">
+        <v>0.02761239986745674</v>
+      </c>
+      <c r="J49">
+        <v>0.09273416591622477</v>
+      </c>
+      <c r="K49">
+        <v>0.1539780412762064</v>
+      </c>
+      <c r="L49">
+        <v>0.01153241253570569</v>
+      </c>
+      <c r="M49">
+        <v>-0.01323926303951249</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13">
       <c r="A50" s="1" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="B50">
-        <v>-0.05729880702123013</v>
+        <v>0.04537446641624217</v>
       </c>
       <c r="C50">
-        <v>0.02549053278911185</v>
+        <v>0.0327799714574866</v>
       </c>
       <c r="D50">
-        <v>0.007733006547798402</v>
+        <v>-0.0002779285026514912</v>
       </c>
       <c r="E50">
-        <v>-0.02495395411433045</v>
+        <v>0.00724013137112644</v>
       </c>
       <c r="F50">
-        <v>-0.05758344359841568</v>
+        <v>-0.04280536421266355</v>
       </c>
       <c r="G50">
-        <v>0.03580060128581933</v>
+        <v>0.03723316605313712</v>
       </c>
       <c r="H50">
-        <v>0.030391124327723</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8">
+        <v>-0.02408232073892604</v>
+      </c>
+      <c r="I50">
+        <v>0.008995749417102456</v>
+      </c>
+      <c r="J50">
+        <v>-0.02726843603096347</v>
+      </c>
+      <c r="K50">
+        <v>-0.04331340383506058</v>
+      </c>
+      <c r="L50">
+        <v>0.03908826431524971</v>
+      </c>
+      <c r="M50">
+        <v>0.01723716314427946</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13">
       <c r="A51" s="1" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="B51">
-        <v>-0.02406360419632504</v>
+        <v>0.02475016850136634</v>
       </c>
       <c r="C51">
-        <v>0.01438474140132358</v>
+        <v>0.003499031972102934</v>
       </c>
       <c r="D51">
-        <v>-0.005530718548435756</v>
+        <v>-0.004681859130839312</v>
       </c>
       <c r="E51">
-        <v>0.009524073169463344</v>
+        <v>-0.01882760814802211</v>
       </c>
       <c r="F51">
-        <v>0.002552851956565353</v>
+        <v>0.02239650859041839</v>
       </c>
       <c r="G51">
-        <v>-0.01241706702370419</v>
+        <v>-0.0058423098972852</v>
       </c>
       <c r="H51">
-        <v>-0.01836127511948082</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8">
+        <v>-0.0134473970592798</v>
+      </c>
+      <c r="I51">
+        <v>-0.004272212803768758</v>
+      </c>
+      <c r="J51">
+        <v>0.05950966415913445</v>
+      </c>
+      <c r="K51">
+        <v>0.03347871159431304</v>
+      </c>
+      <c r="L51">
+        <v>0.02391523039436544</v>
+      </c>
+      <c r="M51">
+        <v>-0.01514357997935746</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13">
       <c r="A52" s="1" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="B52">
-        <v>0</v>
+        <v>0.04812981990963668</v>
       </c>
       <c r="C52">
-        <v>0</v>
+        <v>0.0247643608972121</v>
       </c>
       <c r="D52">
-        <v>0</v>
+        <v>-0.004647855802397993</v>
       </c>
       <c r="E52">
-        <v>0</v>
+        <v>0.03491057713942408</v>
       </c>
       <c r="F52">
-        <v>0</v>
+        <v>-0.02146862879267572</v>
       </c>
       <c r="G52">
-        <v>0</v>
+        <v>0.04983687634178828</v>
       </c>
       <c r="H52">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8">
+        <v>-0.02095382553584742</v>
+      </c>
+      <c r="I52">
+        <v>0.0343893782630031</v>
+      </c>
+      <c r="J52">
+        <v>-0.03952317223130726</v>
+      </c>
+      <c r="K52">
+        <v>0.04106749428415397</v>
+      </c>
+      <c r="L52">
+        <v>0.001597324038410589</v>
+      </c>
+      <c r="M52">
+        <v>0.01333464336720798</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13">
       <c r="A53" s="1" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="B53">
-        <v>-0.1713666781918876</v>
+        <v>0.1648118216082073</v>
       </c>
       <c r="C53">
-        <v>-0.001345523980486516</v>
+        <v>0.04908853134853372</v>
       </c>
       <c r="D53">
-        <v>-0.02251469290561594</v>
+        <v>-0.00871259576323339</v>
       </c>
       <c r="E53">
-        <v>0.109025616568391</v>
+        <v>0.0257143761287113</v>
       </c>
       <c r="F53">
-        <v>-0.215024902421316</v>
+        <v>0.0679034584044927</v>
       </c>
       <c r="G53">
-        <v>0.01117491987605509</v>
+        <v>0.1332057398633673</v>
       </c>
       <c r="H53">
-        <v>0.08144902589943243</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8">
+        <v>-0.1924153838448127</v>
+      </c>
+      <c r="I53">
+        <v>0.1437267558870894</v>
+      </c>
+      <c r="J53">
+        <v>-0.1133121515095513</v>
+      </c>
+      <c r="K53">
+        <v>0.0330268895199349</v>
+      </c>
+      <c r="L53">
+        <v>-0.007747490541465667</v>
+      </c>
+      <c r="M53">
+        <v>0.06580035059193595</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13">
       <c r="A54" s="1" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="B54">
-        <v>-0.05104694898214366</v>
+        <v>0.05541442839779502</v>
       </c>
       <c r="C54">
-        <v>0.01798254035460433</v>
+        <v>0.04477342584664382</v>
       </c>
       <c r="D54">
-        <v>-0.02348757042503623</v>
+        <v>0.01171432550516608</v>
       </c>
       <c r="E54">
-        <v>-0.05567200514761077</v>
+        <v>-0.01834123474212179</v>
       </c>
       <c r="F54">
-        <v>-0.02959599174166501</v>
+        <v>-0.1392405461793819</v>
       </c>
       <c r="G54">
-        <v>-0.03097822421854892</v>
+        <v>-0.01937135179150724</v>
       </c>
       <c r="H54">
-        <v>0.04431158393809958</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8">
+        <v>-0.01224870500085629</v>
+      </c>
+      <c r="I54">
+        <v>-0.03233830778495688</v>
+      </c>
+      <c r="J54">
+        <v>-0.05569750621675435</v>
+      </c>
+      <c r="K54">
+        <v>-0.1425453903073709</v>
+      </c>
+      <c r="L54">
+        <v>0.0007703794318816587</v>
+      </c>
+      <c r="M54">
+        <v>-0.03303992246105186</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13">
       <c r="A55" s="1" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="B55">
-        <v>-0.09598711540358258</v>
+        <v>0.08761493361319837</v>
       </c>
       <c r="C55">
-        <v>0.005587185225383665</v>
+        <v>0.03872031510213512</v>
       </c>
       <c r="D55">
-        <v>-0.02089674175903929</v>
+        <v>-0.03037290865272698</v>
       </c>
       <c r="E55">
-        <v>0.03610873222035426</v>
+        <v>0.001661034491253266</v>
       </c>
       <c r="F55">
-        <v>-0.1749303584455758</v>
+        <v>0.001292752587419716</v>
       </c>
       <c r="G55">
-        <v>0.01812873825249737</v>
+        <v>0.06944995741926063</v>
       </c>
       <c r="H55">
-        <v>0.09393024281554831</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8">
+        <v>-0.1249832827221713</v>
+      </c>
+      <c r="I55">
+        <v>0.1016527801522714</v>
+      </c>
+      <c r="J55">
+        <v>-0.06073081769320623</v>
+      </c>
+      <c r="K55">
+        <v>-0.006326482963154847</v>
+      </c>
+      <c r="L55">
+        <v>-0.004709471636452447</v>
+      </c>
+      <c r="M55">
+        <v>-0.03576860603399493</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13">
       <c r="A56" s="1" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="B56">
-        <v>-0.1701972651856695</v>
+        <v>0.1544337636433204</v>
       </c>
       <c r="C56">
-        <v>0.005543297043162499</v>
+        <v>0.06412455544327179</v>
       </c>
       <c r="D56">
-        <v>-0.02066261734845978</v>
+        <v>-0.03770321061848891</v>
       </c>
       <c r="E56">
-        <v>0.0964046919956059</v>
+        <v>-0.005287564496876757</v>
       </c>
       <c r="F56">
-        <v>-0.2262175665188572</v>
+        <v>0.04480638671337738</v>
       </c>
       <c r="G56">
-        <v>0.04664675669708393</v>
+        <v>0.1329060114629919</v>
       </c>
       <c r="H56">
-        <v>0.08191826406815031</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8">
+        <v>-0.1704290309303336</v>
+      </c>
+      <c r="I56">
+        <v>0.1462036969024349</v>
+      </c>
+      <c r="J56">
+        <v>-0.09155472981389219</v>
+      </c>
+      <c r="K56">
+        <v>0.03022441849834434</v>
+      </c>
+      <c r="L56">
+        <v>-0.04113021798879556</v>
+      </c>
+      <c r="M56">
+        <v>0.01668104229900781</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13">
       <c r="A57" s="1" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -2185,1154 +3040,1829 @@
       <c r="H57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:8">
+      <c r="I57">
+        <v>0</v>
+      </c>
+      <c r="J57">
+        <v>0</v>
+      </c>
+      <c r="K57">
+        <v>0</v>
+      </c>
+      <c r="L57">
+        <v>0</v>
+      </c>
+      <c r="M57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13">
       <c r="A58" s="1" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="B58">
-        <v>-0.02447369238648416</v>
+        <v>0.04160160586366573</v>
       </c>
       <c r="C58">
-        <v>0.04582393763132167</v>
+        <v>0.03757793937157859</v>
       </c>
       <c r="D58">
-        <v>0.0252831193284247</v>
+        <v>0.07766685454601913</v>
       </c>
       <c r="E58">
-        <v>-0.3928238113660151</v>
+        <v>-0.03956117341146786</v>
       </c>
       <c r="F58">
-        <v>0.3412249367662362</v>
+        <v>-0.02500606202461696</v>
       </c>
       <c r="G58">
-        <v>0.1987310191089108</v>
+        <v>0.06475710415376031</v>
       </c>
       <c r="H58">
-        <v>0.6509978511972241</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8">
+        <v>0.1287853227671621</v>
+      </c>
+      <c r="I58">
+        <v>-0.1141831449147566</v>
+      </c>
+      <c r="J58">
+        <v>0.1748032493723364</v>
+      </c>
+      <c r="K58">
+        <v>-0.07319505609915657</v>
+      </c>
+      <c r="L58">
+        <v>0.3828661167827033</v>
+      </c>
+      <c r="M58">
+        <v>-0.1568131620908921</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13">
       <c r="A59" s="1" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="B59">
-        <v>-0.1891815150250724</v>
+        <v>0.2188593988317901</v>
       </c>
       <c r="C59">
-        <v>-0.4014764914006466</v>
+        <v>-0.2974043846646002</v>
       </c>
       <c r="D59">
-        <v>-0.0948776384969901</v>
+        <v>-0.04476626880882172</v>
       </c>
       <c r="E59">
-        <v>0.01199524973000985</v>
+        <v>-0.002622829065582216</v>
       </c>
       <c r="F59">
-        <v>-0.02844220679950697</v>
+        <v>-0.02562171627110426</v>
       </c>
       <c r="G59">
-        <v>-0.06560574035632757</v>
+        <v>-0.02037129638827867</v>
       </c>
       <c r="H59">
-        <v>-0.0005849573643107808</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8">
+        <v>-0.1089955277678566</v>
+      </c>
+      <c r="I59">
+        <v>0.05606303002729803</v>
+      </c>
+      <c r="J59">
+        <v>0.05153261514942423</v>
+      </c>
+      <c r="K59">
+        <v>0.07458667652266425</v>
+      </c>
+      <c r="L59">
+        <v>-0.07448355857805779</v>
+      </c>
+      <c r="M59">
+        <v>0.03307540332357895</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13">
       <c r="A60" s="1" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="B60">
-        <v>-0.2653128534858261</v>
+        <v>0.2418387067473882</v>
       </c>
       <c r="C60">
-        <v>0.05263924334996141</v>
+        <v>0.1172994443136348</v>
       </c>
       <c r="D60">
-        <v>-0.07493048151299199</v>
+        <v>-0.07526250432868314</v>
       </c>
       <c r="E60">
-        <v>0.01496650323681209</v>
+        <v>-0.04921156958908369</v>
       </c>
       <c r="F60">
-        <v>0.05984049779708719</v>
+        <v>0.1351175921188108</v>
       </c>
       <c r="G60">
-        <v>0.05466909878760785</v>
+        <v>-0.03779213751351528</v>
       </c>
       <c r="H60">
-        <v>-0.1614185668201912</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8">
+        <v>0.05729083452501863</v>
+      </c>
+      <c r="I60">
+        <v>-0.05684350702268176</v>
+      </c>
+      <c r="J60">
+        <v>-0.08932371084926696</v>
+      </c>
+      <c r="K60">
+        <v>0.2479507297446838</v>
+      </c>
+      <c r="L60">
+        <v>0.05815579927710122</v>
+      </c>
+      <c r="M60">
+        <v>0.08055674059330764</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13">
       <c r="A61" s="1" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="B61">
-        <v>-0.08932366459279563</v>
+        <v>0.1029875344695863</v>
       </c>
       <c r="C61">
-        <v>0.04114397207038341</v>
+        <v>0.0589374845298971</v>
       </c>
       <c r="D61">
-        <v>-0.00822637716627302</v>
+        <v>-0.05164163751237527</v>
       </c>
       <c r="E61">
-        <v>0.006388898077982451</v>
+        <v>0.002010292540941915</v>
       </c>
       <c r="F61">
-        <v>-0.009286041667554895</v>
+        <v>-0.1307739624607408</v>
       </c>
       <c r="G61">
-        <v>-0.04863221036074929</v>
+        <v>0.106204374852816</v>
       </c>
       <c r="H61">
-        <v>0.0144953790169453</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8">
+        <v>0.009587395411488748</v>
+      </c>
+      <c r="I61">
+        <v>0.02048355263479713</v>
+      </c>
+      <c r="J61">
+        <v>0.1114854409342932</v>
+      </c>
+      <c r="K61">
+        <v>-0.01519206458352733</v>
+      </c>
+      <c r="L61">
+        <v>0.03856511928894338</v>
+      </c>
+      <c r="M61">
+        <v>-0.0117355279476961</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13">
       <c r="A62" s="1" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="B62">
-        <v>-0.1567236710609474</v>
+        <v>0.1465392639113252</v>
       </c>
       <c r="C62">
-        <v>0.01951218691881723</v>
+        <v>0.06396510977662878</v>
       </c>
       <c r="D62">
-        <v>0.02062775279637767</v>
+        <v>-0.03117976386115282</v>
       </c>
       <c r="E62">
-        <v>0.1648427158684916</v>
+        <v>0.03124862422507891</v>
       </c>
       <c r="F62">
-        <v>-0.2069968786188417</v>
+        <v>0.05611359978530775</v>
       </c>
       <c r="G62">
-        <v>-0.02283348238801166</v>
+        <v>0.08946027881825525</v>
       </c>
       <c r="H62">
-        <v>0.07395481833142452</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8">
+        <v>-0.137654938024892</v>
+      </c>
+      <c r="I62">
+        <v>0.1664666316284118</v>
+      </c>
+      <c r="J62">
+        <v>-0.1389554992302334</v>
+      </c>
+      <c r="K62">
+        <v>-0.01000838892208182</v>
+      </c>
+      <c r="L62">
+        <v>-0.05014566448559588</v>
+      </c>
+      <c r="M62">
+        <v>-0.0379265565873086</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13">
       <c r="A63" s="1" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="B63">
-        <v>-0.0380391010385226</v>
+        <v>0.04367782060980113</v>
       </c>
       <c r="C63">
-        <v>0.02491757056550097</v>
+        <v>0.02669545394134901</v>
       </c>
       <c r="D63">
-        <v>0.005519498845415595</v>
+        <v>-0.001439051242472844</v>
       </c>
       <c r="E63">
-        <v>-0.004340418749891056</v>
+        <v>0.01833614926661296</v>
       </c>
       <c r="F63">
-        <v>-0.0174678514962362</v>
+        <v>-0.07022406154588</v>
       </c>
       <c r="G63">
-        <v>-0.00628222960208526</v>
+        <v>0.008872769948375134</v>
       </c>
       <c r="H63">
-        <v>0.04259286762973033</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8">
+        <v>0.01341508243606429</v>
+      </c>
+      <c r="I63">
+        <v>-0.006994010133888109</v>
+      </c>
+      <c r="J63">
+        <v>0.004734829789048806</v>
+      </c>
+      <c r="K63">
+        <v>-0.03798204400742315</v>
+      </c>
+      <c r="L63">
+        <v>0.04520930915058414</v>
+      </c>
+      <c r="M63">
+        <v>-0.01917591917474202</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13">
       <c r="A64" s="1" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="B64">
-        <v>-0.1074899234860778</v>
+        <v>0.09842533688229504</v>
       </c>
       <c r="C64">
-        <v>0.02292519012879562</v>
+        <v>0.04873830385121605</v>
       </c>
       <c r="D64">
-        <v>-0.03798533569898632</v>
+        <v>-0.005140522157634372</v>
       </c>
       <c r="E64">
-        <v>-0.03857845709779518</v>
+        <v>-0.04318434341341329</v>
       </c>
       <c r="F64">
-        <v>0.02452601980456226</v>
+        <v>-0.07558736476537949</v>
       </c>
       <c r="G64">
-        <v>-0.07641842844376794</v>
+        <v>0.04222634914575379</v>
       </c>
       <c r="H64">
-        <v>-0.03690970630235747</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8">
+        <v>0.06963729890197044</v>
+      </c>
+      <c r="I64">
+        <v>-0.06524218132845654</v>
+      </c>
+      <c r="J64">
+        <v>0.02961948555336267</v>
+      </c>
+      <c r="K64">
+        <v>0.02060436924489375</v>
+      </c>
+      <c r="L64">
+        <v>-0.00847984729625265</v>
+      </c>
+      <c r="M64">
+        <v>0.0610043529105217</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13">
       <c r="A65" s="1" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="B65">
-        <v>-0.1307615639718508</v>
+        <v>0.1232825300358179</v>
       </c>
       <c r="C65">
-        <v>0.04266533542756069</v>
+        <v>0.04866667433667942</v>
       </c>
       <c r="D65">
-        <v>-0.02644939227034331</v>
+        <v>-0.001006335147345817</v>
       </c>
       <c r="E65">
-        <v>-0.1000056823930708</v>
+        <v>0.02443186295475758</v>
       </c>
       <c r="F65">
-        <v>0.1548053652686621</v>
+        <v>0.01307390063393919</v>
       </c>
       <c r="G65">
-        <v>0.2931042235034902</v>
+        <v>-0.1038422921617897</v>
       </c>
       <c r="H65">
-        <v>0.06280616708366601</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8">
+        <v>0.0008943584206053354</v>
+      </c>
+      <c r="I65">
+        <v>-0.357470312774523</v>
+      </c>
+      <c r="J65">
+        <v>-0.510713006373279</v>
+      </c>
+      <c r="K65">
+        <v>0.1085559862681997</v>
+      </c>
+      <c r="L65">
+        <v>0.3361016527068372</v>
+      </c>
+      <c r="M65">
+        <v>0.02777692071543585</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13">
       <c r="A66" s="1" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="B66">
-        <v>-0.1647390972933629</v>
+        <v>0.1356552478141391</v>
       </c>
       <c r="C66">
-        <v>0.09119420834555199</v>
+        <v>0.116530725636912</v>
       </c>
       <c r="D66">
-        <v>0.00839864571908285</v>
+        <v>-0.1018944266578612</v>
       </c>
       <c r="E66">
-        <v>0.01748773732151051</v>
+        <v>0.04780970189067957</v>
       </c>
       <c r="F66">
-        <v>-0.007557259158823929</v>
+        <v>-0.1397305234148456</v>
       </c>
       <c r="G66">
-        <v>-0.2459366272891408</v>
+        <v>0.1503179526022772</v>
       </c>
       <c r="H66">
-        <v>0.09353704770648129</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8">
+        <v>0.08770515798551108</v>
+      </c>
+      <c r="I66">
+        <v>0.04543430099559971</v>
+      </c>
+      <c r="J66">
+        <v>0.2121506736494313</v>
+      </c>
+      <c r="K66">
+        <v>0.1305359428864447</v>
+      </c>
+      <c r="L66">
+        <v>0.0410458139797394</v>
+      </c>
+      <c r="M66">
+        <v>0.08636348130575028</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13">
       <c r="A67" s="1" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="B67">
-        <v>-0.09173925164300759</v>
+        <v>0.07261774692466774</v>
       </c>
       <c r="C67">
-        <v>0.05355034274686222</v>
+        <v>0.05153880559506773</v>
       </c>
       <c r="D67">
-        <v>-0.02393344818241617</v>
+        <v>0.01190400855331788</v>
       </c>
       <c r="E67">
-        <v>-0.0002525290441760366</v>
+        <v>-0.04337360884261141</v>
       </c>
       <c r="F67">
-        <v>-0.02563855417004177</v>
+        <v>0.04909678055445101</v>
       </c>
       <c r="G67">
-        <v>-0.03668991835768939</v>
+        <v>0.04832893659201081</v>
       </c>
       <c r="H67">
-        <v>-0.04417297509503149</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8">
+        <v>-0.05064941996173047</v>
+      </c>
+      <c r="I67">
+        <v>-0.02192106278885162</v>
+      </c>
+      <c r="J67">
+        <v>0.02874465046776168</v>
+      </c>
+      <c r="K67">
+        <v>0.009839897910335271</v>
+      </c>
+      <c r="L67">
+        <v>-0.1229553372881678</v>
+      </c>
+      <c r="M67">
+        <v>0.09723975161844656</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13">
       <c r="A68" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="B68">
-        <v>-0.06714827053286401</v>
+        <v>0.1188866074671961</v>
       </c>
       <c r="C68">
-        <v>-0.2917036154761755</v>
+        <v>-0.2705782004480492</v>
       </c>
       <c r="D68">
-        <v>-0.03439885082384811</v>
+        <v>-0.002786753714602863</v>
       </c>
       <c r="E68">
-        <v>-0.02355424486219157</v>
+        <v>0.01007394041134199</v>
       </c>
       <c r="F68">
-        <v>-0.02226969277104164</v>
+        <v>-0.04309614013991853</v>
       </c>
       <c r="G68">
-        <v>0.03375426527440007</v>
+        <v>0.01767279358117685</v>
       </c>
       <c r="H68">
-        <v>0.03726343167576062</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8">
+        <v>-0.01506386692210947</v>
+      </c>
+      <c r="I68">
+        <v>-0.0199386728495088</v>
+      </c>
+      <c r="J68">
+        <v>-0.03737138472684453</v>
+      </c>
+      <c r="K68">
+        <v>-0.003721130650643586</v>
+      </c>
+      <c r="L68">
+        <v>0.04336244857688956</v>
+      </c>
+      <c r="M68">
+        <v>-0.001041292483484217</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13">
       <c r="A69" s="1" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="B69">
-        <v>-0.03354867056579736</v>
+        <v>0.0416726252535302</v>
       </c>
       <c r="C69">
-        <v>0.0196905176573968</v>
+        <v>0.009006277264686099</v>
       </c>
       <c r="D69">
-        <v>-0.00785798217086724</v>
+        <v>0.005246444387071041</v>
       </c>
       <c r="E69">
-        <v>-0.006630719023348961</v>
+        <v>0.0074621646605443</v>
       </c>
       <c r="F69">
-        <v>-0.02483487174849516</v>
+        <v>-0.02022615379795862</v>
       </c>
       <c r="G69">
-        <v>-0.03206663727167204</v>
+        <v>0.03853515368393087</v>
       </c>
       <c r="H69">
-        <v>0.02047901287438567</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8">
+        <v>-0.01680601619207689</v>
+      </c>
+      <c r="I69">
+        <v>-0.01924796107703721</v>
+      </c>
+      <c r="J69">
+        <v>0.005506386591459767</v>
+      </c>
+      <c r="K69">
+        <v>-0.02109092083738671</v>
+      </c>
+      <c r="L69">
+        <v>0.001789018913129474</v>
+      </c>
+      <c r="M69">
+        <v>-0.04016482140630967</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13">
       <c r="A70" s="1" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="B70">
-        <v>-0.06381197254047848</v>
+        <v>0.05155729468699844</v>
       </c>
       <c r="C70">
-        <v>0.01555027859002781</v>
+        <v>0.0200717345625948</v>
       </c>
       <c r="D70">
-        <v>-0.03761937443963342</v>
+        <v>-0.03555108709642824</v>
       </c>
       <c r="E70">
-        <v>0.007567769496926809</v>
+        <v>-0.02472289204885331</v>
       </c>
       <c r="F70">
-        <v>0.08594603391996677</v>
+        <v>-0.03099325347956178</v>
       </c>
       <c r="G70">
-        <v>0.04123574044620352</v>
+        <v>-0.002901276967378463</v>
       </c>
       <c r="H70">
-        <v>-0.06948394192825828</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8">
+        <v>0.02085742524084959</v>
+      </c>
+      <c r="I70">
+        <v>-0.1213904622781969</v>
+      </c>
+      <c r="J70">
+        <v>-0.06408821405962924</v>
+      </c>
+      <c r="K70">
+        <v>-0.3016324582209696</v>
+      </c>
+      <c r="L70">
+        <v>-0.1682572277636893</v>
+      </c>
+      <c r="M70">
+        <v>0.158591668704673</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13">
       <c r="A71" s="1" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="B71">
-        <v>-0.0766118810970251</v>
+        <v>0.1334533528396365</v>
       </c>
       <c r="C71">
-        <v>-0.287641717508957</v>
+        <v>-0.2840204630836731</v>
       </c>
       <c r="D71">
-        <v>-0.06324892920978922</v>
+        <v>-0.01055379672561914</v>
       </c>
       <c r="E71">
-        <v>-0.00926625234682522</v>
+        <v>-0.008609900231002629</v>
       </c>
       <c r="F71">
-        <v>0.006492250112561992</v>
+        <v>-0.03449237137157513</v>
       </c>
       <c r="G71">
-        <v>0.01457586894573457</v>
+        <v>0.03643542374638688</v>
       </c>
       <c r="H71">
-        <v>0.01855198117203034</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8">
+        <v>0.00421129615595422</v>
+      </c>
+      <c r="I71">
+        <v>-0.02270639221890206</v>
+      </c>
+      <c r="J71">
+        <v>-0.003377745307484305</v>
+      </c>
+      <c r="K71">
+        <v>0.008342782824115071</v>
+      </c>
+      <c r="L71">
+        <v>0.03064029901894019</v>
+      </c>
+      <c r="M71">
+        <v>-0.001222665920953378</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13">
       <c r="A72" s="1" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="B72">
-        <v>-0.1721090023733894</v>
+        <v>0.1508392135535624</v>
       </c>
       <c r="C72">
-        <v>-0.0163238544424442</v>
+        <v>0.03000455874104388</v>
       </c>
       <c r="D72">
-        <v>0.2400145170330252</v>
+        <v>0.0271663626709804</v>
       </c>
       <c r="E72">
-        <v>0.02048554687216913</v>
+        <v>0.1394175589479889</v>
       </c>
       <c r="F72">
-        <v>-0.04604322711653682</v>
+        <v>-0.006352817042781615</v>
       </c>
       <c r="G72">
-        <v>-0.05636832093863086</v>
+        <v>0.0354099576158837</v>
       </c>
       <c r="H72">
-        <v>0.003029824943765801</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8">
+        <v>-0.01999398489698425</v>
+      </c>
+      <c r="I72">
+        <v>0.01572467826822939</v>
+      </c>
+      <c r="J72">
+        <v>-0.108953805428968</v>
+      </c>
+      <c r="K72">
+        <v>0.09984678936552951</v>
+      </c>
+      <c r="L72">
+        <v>3.276941393129174e-05</v>
+      </c>
+      <c r="M72">
+        <v>-0.007659496182289751</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13">
       <c r="A73" s="1" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="B73">
-        <v>-0.2911682908254254</v>
+        <v>0.2386821366830189</v>
       </c>
       <c r="C73">
-        <v>0.1854796344249884</v>
+        <v>0.1363161858451681</v>
       </c>
       <c r="D73">
-        <v>-0.08198798587705793</v>
+        <v>-0.1663614895316451</v>
       </c>
       <c r="E73">
-        <v>0.07490044007740849</v>
+        <v>-0.118070033705779</v>
       </c>
       <c r="F73">
-        <v>0.2673452793837588</v>
+        <v>0.4681314923229536</v>
       </c>
       <c r="G73">
-        <v>0.1555583738117956</v>
+        <v>-0.005353562772241647</v>
       </c>
       <c r="H73">
-        <v>-0.04192239743032902</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8">
+        <v>0.2027792330625586</v>
+      </c>
+      <c r="I73">
+        <v>-0.1405044809621727</v>
+      </c>
+      <c r="J73">
+        <v>0.2548253631989733</v>
+      </c>
+      <c r="K73">
+        <v>0.2072165769313684</v>
+      </c>
+      <c r="L73">
+        <v>0.08412813310365216</v>
+      </c>
+      <c r="M73">
+        <v>0.01301550223273878</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13">
       <c r="A74" s="1" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="B74">
-        <v>-0.09762669948856427</v>
+        <v>0.1043656696799925</v>
       </c>
       <c r="C74">
-        <v>0.03772074727000516</v>
+        <v>0.07158932078005148</v>
       </c>
       <c r="D74">
-        <v>-0.006902482849778948</v>
+        <v>-0.008501334565566485</v>
       </c>
       <c r="E74">
-        <v>0.03674787886010492</v>
+        <v>0.02112316906042481</v>
       </c>
       <c r="F74">
-        <v>-0.1004891577938525</v>
+        <v>0.04361249907539262</v>
       </c>
       <c r="G74">
-        <v>0.04963813576917784</v>
+        <v>0.1222859547604151</v>
       </c>
       <c r="H74">
-        <v>0.06554425720945796</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8">
+        <v>-0.07969046109975278</v>
+      </c>
+      <c r="I74">
+        <v>0.06117603140036383</v>
+      </c>
+      <c r="J74">
+        <v>-0.03422465163511847</v>
+      </c>
+      <c r="K74">
+        <v>0.01023547785112035</v>
+      </c>
+      <c r="L74">
+        <v>-0.003811720961169137</v>
+      </c>
+      <c r="M74">
+        <v>-0.01945516838839691</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13">
       <c r="A75" s="1" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="B75">
-        <v>-0.09722300233363615</v>
+        <v>0.1003283274471218</v>
       </c>
       <c r="C75">
-        <v>0.01968639580815599</v>
+        <v>0.05416570814099941</v>
       </c>
       <c r="D75">
-        <v>0.001341038648981886</v>
+        <v>-0.004551898319262624</v>
       </c>
       <c r="E75">
-        <v>0.04528329271700737</v>
+        <v>0.01283194696754125</v>
       </c>
       <c r="F75">
-        <v>-0.1241971256977735</v>
+        <v>0.02969240550450199</v>
       </c>
       <c r="G75">
-        <v>0.04568049820630356</v>
+        <v>0.04108255509778783</v>
       </c>
       <c r="H75">
-        <v>0.03177297055657153</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8">
+        <v>-0.1127729814149467</v>
+      </c>
+      <c r="I75">
+        <v>0.07706923147167889</v>
+      </c>
+      <c r="J75">
+        <v>-0.0535777250841854</v>
+      </c>
+      <c r="K75">
+        <v>0.01182238560039752</v>
+      </c>
+      <c r="L75">
+        <v>-0.01425954324860425</v>
+      </c>
+      <c r="M75">
+        <v>-0.05196167670334757</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13">
       <c r="A76" s="1" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="B76">
-        <v>-0.1390482282534741</v>
+        <v>0.07392253351292033</v>
       </c>
       <c r="C76">
-        <v>0.03525731290404974</v>
+        <v>0.04881475539475203</v>
       </c>
       <c r="D76">
-        <v>-0.02017896911883519</v>
+        <v>-0.009179467659069135</v>
       </c>
       <c r="E76">
-        <v>0.04143763571357114</v>
+        <v>-0.01864861992103791</v>
       </c>
       <c r="F76">
-        <v>-0.2238188681117007</v>
+        <v>0.06615894916236774</v>
       </c>
       <c r="G76">
-        <v>0.06930583617809083</v>
+        <v>0.06828025392008089</v>
       </c>
       <c r="H76">
-        <v>0.05180322038848737</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8">
+        <v>-0.1641406692840758</v>
+      </c>
+      <c r="I76">
+        <v>0.09534484555719244</v>
+      </c>
+      <c r="J76">
+        <v>-0.01364887082632909</v>
+      </c>
+      <c r="K76">
+        <v>-0.03879440280839429</v>
+      </c>
+      <c r="L76">
+        <v>-0.001303183370870753</v>
+      </c>
+      <c r="M76">
+        <v>0.03116380734363617</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13">
       <c r="A77" s="1" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="B77">
-        <v>-0.07758958385458578</v>
+        <v>0.07116422907062069</v>
       </c>
       <c r="C77">
-        <v>0.03433357225252238</v>
+        <v>0.03212754930786307</v>
       </c>
       <c r="D77">
-        <v>-0.02795443538098092</v>
+        <v>-0.0218777029552726</v>
       </c>
       <c r="E77">
-        <v>-0.1084645963040128</v>
+        <v>-0.01576784322454902</v>
       </c>
       <c r="F77">
-        <v>0.2313780283277997</v>
+        <v>-0.2662189297154967</v>
       </c>
       <c r="G77">
-        <v>-0.6070248074282489</v>
+        <v>-0.07299314066025121</v>
       </c>
       <c r="H77">
-        <v>-0.2143082577398807</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8">
+        <v>0.08303108211421169</v>
+      </c>
+      <c r="I77">
+        <v>-0.2427057647008086</v>
+      </c>
+      <c r="J77">
+        <v>0.002526532716255466</v>
+      </c>
+      <c r="K77">
+        <v>0.4262919633240783</v>
+      </c>
+      <c r="L77">
+        <v>-0.5530962074467004</v>
+      </c>
+      <c r="M77">
+        <v>-0.01720367953290115</v>
+      </c>
+    </row>
+    <row r="78" spans="1:13">
       <c r="A78" s="1" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="B78">
-        <v>-0.1828391463961228</v>
+        <v>0.1514310825381165</v>
       </c>
       <c r="C78">
-        <v>0.08377931333407954</v>
+        <v>0.1190765512401017</v>
       </c>
       <c r="D78">
-        <v>-0.04459384886703342</v>
+        <v>0.1855213897910555</v>
       </c>
       <c r="E78">
-        <v>-0.2117059192981526</v>
+        <v>-0.1230657140946308</v>
       </c>
       <c r="F78">
-        <v>-0.02947271239981323</v>
+        <v>-0.2195337299915606</v>
       </c>
       <c r="G78">
-        <v>-0.09627477579967346</v>
+        <v>-0.6917815108845659</v>
       </c>
       <c r="H78">
-        <v>-0.1034567447610005</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8">
+        <v>-0.4119951494316771</v>
+      </c>
+      <c r="I78">
+        <v>0.1311796800268728</v>
+      </c>
+      <c r="J78">
+        <v>0.2273751453763367</v>
+      </c>
+      <c r="K78">
+        <v>0.1495909247277155</v>
+      </c>
+      <c r="L78">
+        <v>0.1523357016734783</v>
+      </c>
+      <c r="M78">
+        <v>0.1280641308591117</v>
+      </c>
+    </row>
+    <row r="79" spans="1:13">
       <c r="A79" s="1" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="B79">
-        <v>-0.1359605205243299</v>
+        <v>0.1358575084601163</v>
       </c>
       <c r="C79">
-        <v>0.02475136347306624</v>
+        <v>0.06980102932189655</v>
       </c>
       <c r="D79">
-        <v>-0.001727715977105927</v>
+        <v>-0.003766848889751495</v>
       </c>
       <c r="E79">
-        <v>0.06614553357398428</v>
+        <v>0.004430810052763274</v>
       </c>
       <c r="F79">
-        <v>-0.1629354163986433</v>
+        <v>0.006327187525324305</v>
       </c>
       <c r="G79">
-        <v>0.00646681573792173</v>
+        <v>0.1067250127161635</v>
       </c>
       <c r="H79">
-        <v>0.0658746008608227</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8">
+        <v>-0.1146427365582776</v>
+      </c>
+      <c r="I79">
+        <v>0.110188940854124</v>
+      </c>
+      <c r="J79">
+        <v>-0.09093102314834817</v>
+      </c>
+      <c r="K79">
+        <v>0.01612173889610943</v>
+      </c>
+      <c r="L79">
+        <v>-0.01618610249922423</v>
+      </c>
+      <c r="M79">
+        <v>-0.04073117387761609</v>
+      </c>
+    </row>
+    <row r="80" spans="1:13">
       <c r="A80" s="1" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="B80">
-        <v>-0.03681235216030357</v>
+        <v>0.06102806581654944</v>
       </c>
       <c r="C80">
-        <v>0.01998614868273327</v>
+        <v>0.0340855958280112</v>
       </c>
       <c r="D80">
-        <v>-0.01438925933038211</v>
+        <v>-0.06606255379779541</v>
       </c>
       <c r="E80">
-        <v>0.03510471919246805</v>
+        <v>0.01063864945370335</v>
       </c>
       <c r="F80">
-        <v>0.01867956112903501</v>
+        <v>-0.05171889899511942</v>
       </c>
       <c r="G80">
-        <v>0.01082352177363867</v>
+        <v>-0.01447592935094152</v>
       </c>
       <c r="H80">
-        <v>0.008780869228589035</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8">
+        <v>-0.04514313609019906</v>
+      </c>
+      <c r="I80">
+        <v>-0.08701298109439473</v>
+      </c>
+      <c r="J80">
+        <v>-0.0155825108109494</v>
+      </c>
+      <c r="K80">
+        <v>-0.1669696444654775</v>
+      </c>
+      <c r="L80">
+        <v>0.07610319721636373</v>
+      </c>
+      <c r="M80">
+        <v>-0.02837341105551773</v>
+      </c>
+    </row>
+    <row r="81" spans="1:13">
       <c r="A81" s="1" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="B81">
-        <v>-0.1048608918584644</v>
+        <v>0.1233148017619775</v>
       </c>
       <c r="C81">
-        <v>0.02274809071470479</v>
+        <v>0.06166994029353883</v>
       </c>
       <c r="D81">
-        <v>-0.01344844233968009</v>
+        <v>-0.006256858401516695</v>
       </c>
       <c r="E81">
-        <v>0.07436349404108145</v>
+        <v>-0.006395182364498312</v>
       </c>
       <c r="F81">
-        <v>-0.1264868040666328</v>
+        <v>-0.0004475278063001251</v>
       </c>
       <c r="G81">
-        <v>0.0103773201322488</v>
+        <v>0.07267367069704071</v>
       </c>
       <c r="H81">
-        <v>-0.02448632640705445</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8">
+        <v>-0.07444667361061973</v>
+      </c>
+      <c r="I81">
+        <v>0.1122257256693213</v>
+      </c>
+      <c r="J81">
+        <v>-0.0517079606326047</v>
+      </c>
+      <c r="K81">
+        <v>0.002836443980943752</v>
+      </c>
+      <c r="L81">
+        <v>-0.01347417265337449</v>
+      </c>
+      <c r="M81">
+        <v>-0.05035210087821062</v>
+      </c>
+    </row>
+    <row r="82" spans="1:13">
       <c r="A82" s="1" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="B82">
-        <v>-0.1171354149317701</v>
+        <v>0.1313111849994788</v>
       </c>
       <c r="C82">
-        <v>0.02507671397620148</v>
+        <v>0.05269257554245558</v>
       </c>
       <c r="D82">
-        <v>-0.07050601828403753</v>
+        <v>-0.02846273656931301</v>
       </c>
       <c r="E82">
-        <v>0.09783302094809607</v>
+        <v>0.00462005276627669</v>
       </c>
       <c r="F82">
-        <v>-0.2238558081913389</v>
+        <v>0.03410782795076189</v>
       </c>
       <c r="G82">
-        <v>0.009731580831558973</v>
+        <v>0.1656751483980754</v>
       </c>
       <c r="H82">
-        <v>0.1159432820194055</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8">
+        <v>-0.1393831139282469</v>
+      </c>
+      <c r="I82">
+        <v>0.1677765926781976</v>
+      </c>
+      <c r="J82">
+        <v>-0.03999641221420876</v>
+      </c>
+      <c r="K82">
+        <v>-0.06106901407335483</v>
+      </c>
+      <c r="L82">
+        <v>-0.07069639126379366</v>
+      </c>
+      <c r="M82">
+        <v>-0.0596715750518414</v>
+      </c>
+    </row>
+    <row r="83" spans="1:13">
       <c r="A83" s="1" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="B83">
-        <v>-0.07947084323416963</v>
+        <v>0.0835151196514462</v>
       </c>
       <c r="C83">
-        <v>0.06079728482542464</v>
+        <v>0.1136672421895494</v>
       </c>
       <c r="D83">
-        <v>-0.04652513385747297</v>
+        <v>-0.02636775807624631</v>
       </c>
       <c r="E83">
-        <v>0.002005763115662711</v>
+        <v>-0.03223356858307304</v>
       </c>
       <c r="F83">
-        <v>0.07325433291114848</v>
+        <v>-0.08453873573648785</v>
       </c>
       <c r="G83">
-        <v>-0.04528194859841784</v>
+        <v>0.03016378328067943</v>
       </c>
       <c r="H83">
-        <v>0.06823176051461877</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8">
+        <v>-0.06765707657870591</v>
+      </c>
+      <c r="I83">
+        <v>-0.1643974895799327</v>
+      </c>
+      <c r="J83">
+        <v>0.03214065164757819</v>
+      </c>
+      <c r="K83">
+        <v>-0.1349745459259099</v>
+      </c>
+      <c r="L83">
+        <v>-0.1300023904825531</v>
+      </c>
+      <c r="M83">
+        <v>-0.02941948636641698</v>
+      </c>
+    </row>
+    <row r="84" spans="1:13">
       <c r="A84" s="1" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="B84">
-        <v>-0.06211760503299506</v>
+        <v>0.05964514873963261</v>
       </c>
       <c r="C84">
-        <v>0.04711485189698039</v>
+        <v>-0.02688399744182092</v>
       </c>
       <c r="D84">
-        <v>0.05204216297947597</v>
+        <v>-0.01125894348975072</v>
       </c>
       <c r="E84">
-        <v>-0.01575825776527082</v>
+        <v>-0.02177957389692452</v>
       </c>
       <c r="F84">
-        <v>-0.07131913511239873</v>
+        <v>0.01499475910826746</v>
       </c>
       <c r="G84">
-        <v>0.1338387983261839</v>
+        <v>-0.1087178105803938</v>
       </c>
       <c r="H84">
-        <v>0.02546821762075221</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8">
+        <v>0.2275602164279951</v>
+      </c>
+      <c r="I84">
+        <v>0.1897702494084679</v>
+      </c>
+      <c r="J84">
+        <v>0.1510672505698147</v>
+      </c>
+      <c r="K84">
+        <v>-0.1908738339157775</v>
+      </c>
+      <c r="L84">
+        <v>0.1670859966208216</v>
+      </c>
+      <c r="M84">
+        <v>0.1847298500922011</v>
+      </c>
+    </row>
+    <row r="85" spans="1:13">
       <c r="A85" s="1" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="B85">
-        <v>-0.0982947291637957</v>
+        <v>0.1125351780637376</v>
       </c>
       <c r="C85">
-        <v>0.03570805220629652</v>
+        <v>0.05087998325357816</v>
       </c>
       <c r="D85">
-        <v>-0.02888680037351158</v>
+        <v>-0.01985768179594955</v>
       </c>
       <c r="E85">
-        <v>0.05755400980403917</v>
+        <v>-0.02731095868742243</v>
       </c>
       <c r="F85">
-        <v>-0.1825874705478755</v>
+        <v>0.005957945191208411</v>
       </c>
       <c r="G85">
-        <v>-0.02047539231031598</v>
+        <v>0.1069208661359697</v>
       </c>
       <c r="H85">
-        <v>0.08194050096807187</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8">
+        <v>-0.1124692090612537</v>
+      </c>
+      <c r="I85">
+        <v>0.1154748115193398</v>
+      </c>
+      <c r="J85">
+        <v>-0.09604023557537868</v>
+      </c>
+      <c r="K85">
+        <v>0.0377981784699091</v>
+      </c>
+      <c r="L85">
+        <v>-0.02756604734075644</v>
+      </c>
+      <c r="M85">
+        <v>-0.04745858934520614</v>
+      </c>
+    </row>
+    <row r="86" spans="1:13">
       <c r="A86" s="1" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="B86">
-        <v>-0.05384193172409819</v>
+        <v>0.07991077726632828</v>
       </c>
       <c r="C86">
-        <v>0.04607992778263276</v>
+        <v>0.03697147232561392</v>
       </c>
       <c r="D86">
-        <v>-0.03792815774705652</v>
+        <v>-0.01073622713777639</v>
       </c>
       <c r="E86">
-        <v>-0.03100629885295629</v>
+        <v>-0.1319835419379164</v>
       </c>
       <c r="F86">
-        <v>0.02590911655205997</v>
+        <v>-0.02982184439635619</v>
       </c>
       <c r="G86">
-        <v>-0.02873629905434521</v>
+        <v>-0.2515756177212255</v>
       </c>
       <c r="H86">
-        <v>-0.05095097501200754</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8">
+        <v>0.5082015910660566</v>
+      </c>
+      <c r="I86">
+        <v>0.5162266534397059</v>
+      </c>
+      <c r="J86">
+        <v>-0.3648189973275788</v>
+      </c>
+      <c r="K86">
+        <v>-0.0303529163154881</v>
+      </c>
+      <c r="L86">
+        <v>-0.07250035836299146</v>
+      </c>
+      <c r="M86">
+        <v>0.1755726182768777</v>
+      </c>
+    </row>
+    <row r="87" spans="1:13">
       <c r="A87" s="1" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="B87">
-        <v>-0.09467158239436464</v>
+        <v>0.113291394354739</v>
       </c>
       <c r="C87">
-        <v>0.04873073997832369</v>
+        <v>0.1018093483396951</v>
       </c>
       <c r="D87">
-        <v>-0.007983185405113368</v>
+        <v>0.01959626342459719</v>
       </c>
       <c r="E87">
-        <v>-0.06428453505971052</v>
+        <v>-0.01106225387705239</v>
       </c>
       <c r="F87">
-        <v>0.01863004057022099</v>
+        <v>-0.1341298855019283</v>
       </c>
       <c r="G87">
-        <v>-0.128624502983029</v>
+        <v>-0.03614970690190825</v>
       </c>
       <c r="H87">
-        <v>0.02278850460169433</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8">
+        <v>0.1016044907116913</v>
+      </c>
+      <c r="I87">
+        <v>-0.1018105789651072</v>
+      </c>
+      <c r="J87">
+        <v>-0.06941180438594909</v>
+      </c>
+      <c r="K87">
+        <v>0.00415396116954296</v>
+      </c>
+      <c r="L87">
+        <v>-0.2687933088480376</v>
+      </c>
+      <c r="M87">
+        <v>-0.1069574220809738</v>
+      </c>
+    </row>
+    <row r="88" spans="1:13">
       <c r="A88" s="1" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="B88">
-        <v>-0.05902326129046773</v>
+        <v>0.05648741520544377</v>
       </c>
       <c r="C88">
-        <v>0.03422969241940944</v>
+        <v>0.05219851881873838</v>
       </c>
       <c r="D88">
-        <v>-0.01946149155641897</v>
+        <v>-0.03461713914153759</v>
       </c>
       <c r="E88">
-        <v>-0.00327108489844503</v>
+        <v>-0.008432850379465276</v>
       </c>
       <c r="F88">
-        <v>0.01393773963704452</v>
+        <v>-0.03480545316693288</v>
       </c>
       <c r="G88">
-        <v>-0.04304682259179797</v>
+        <v>0.05095408577056592</v>
       </c>
       <c r="H88">
-        <v>0.01565874600094133</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8">
+        <v>0.009348825083592935</v>
+      </c>
+      <c r="I88">
+        <v>-0.0226959274899125</v>
+      </c>
+      <c r="J88">
+        <v>0.03643839088076099</v>
+      </c>
+      <c r="K88">
+        <v>-0.04047271287247205</v>
+      </c>
+      <c r="L88">
+        <v>0.05345297995733516</v>
+      </c>
+      <c r="M88">
+        <v>-0.03551888329483133</v>
+      </c>
+    </row>
+    <row r="89" spans="1:13">
       <c r="A89" s="1" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="B89">
-        <v>-0.1268607441463359</v>
+        <v>0.1983464171394555</v>
       </c>
       <c r="C89">
-        <v>-0.3524491611429437</v>
+        <v>-0.3663459618602161</v>
       </c>
       <c r="D89">
-        <v>-0.104710199959478</v>
+        <v>0.03595909121511272</v>
       </c>
       <c r="E89">
-        <v>-0.07933557943276935</v>
+        <v>-0.06581430579425727</v>
       </c>
       <c r="F89">
-        <v>0.06926993409420261</v>
+        <v>-0.03341139123866126</v>
       </c>
       <c r="G89">
-        <v>-0.01548473642238423</v>
+        <v>-0.02360723451192137</v>
       </c>
       <c r="H89">
-        <v>0.038583078617455</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8">
+        <v>0.01207119827790671</v>
+      </c>
+      <c r="I89">
+        <v>-0.03607220031249074</v>
+      </c>
+      <c r="J89">
+        <v>0.04854027149908344</v>
+      </c>
+      <c r="K89">
+        <v>-0.04929853612352028</v>
+      </c>
+      <c r="L89">
+        <v>-0.0103533448324798</v>
+      </c>
+      <c r="M89">
+        <v>-0.04201653910581842</v>
+      </c>
+    </row>
+    <row r="90" spans="1:13">
       <c r="A90" s="1" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="B90">
-        <v>-0.0994125266895851</v>
+        <v>0.1498512194503519</v>
       </c>
       <c r="C90">
-        <v>-0.2762542449640303</v>
+        <v>-0.2694865327944135</v>
       </c>
       <c r="D90">
-        <v>-0.04778847485681662</v>
+        <v>-0.007818153273600239</v>
       </c>
       <c r="E90">
-        <v>-0.0554817023220278</v>
+        <v>-0.01764347205709812</v>
       </c>
       <c r="F90">
-        <v>0.05222672716221544</v>
+        <v>-0.03095363654020612</v>
       </c>
       <c r="G90">
-        <v>-0.09253354866017835</v>
+        <v>0.02340271634455144</v>
       </c>
       <c r="H90">
-        <v>0.01523007215049982</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8">
+        <v>0.05503290497331599</v>
+      </c>
+      <c r="I90">
+        <v>-0.019088118585423</v>
+      </c>
+      <c r="J90">
+        <v>0.03772841222359751</v>
+      </c>
+      <c r="K90">
+        <v>0.03584571391485534</v>
+      </c>
+      <c r="L90">
+        <v>0.01630924005853425</v>
+      </c>
+      <c r="M90">
+        <v>0.02391487047614144</v>
+      </c>
+    </row>
+    <row r="91" spans="1:13">
       <c r="A91" s="1" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="B91">
-        <v>-0.08205656341817506</v>
+        <v>0.0816167365922482</v>
       </c>
       <c r="C91">
-        <v>0.02354544516061708</v>
+        <v>0.05182003711025231</v>
       </c>
       <c r="D91">
-        <v>-0.01570409305735077</v>
+        <v>-0.00102332650609677</v>
       </c>
       <c r="E91">
-        <v>0.01293642268122407</v>
+        <v>-0.006241358613874347</v>
       </c>
       <c r="F91">
-        <v>-0.08987187685602047</v>
+        <v>0.02089898155617404</v>
       </c>
       <c r="G91">
-        <v>0.06182859882823975</v>
+        <v>0.05798880689236696</v>
       </c>
       <c r="H91">
-        <v>0.02494897992342452</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8">
+        <v>-0.06764790199385701</v>
+      </c>
+      <c r="I91">
+        <v>0.06384346994483661</v>
+      </c>
+      <c r="J91">
+        <v>-0.02103936172550452</v>
+      </c>
+      <c r="K91">
+        <v>0.004188275578343691</v>
+      </c>
+      <c r="L91">
+        <v>0.0103545217423212</v>
+      </c>
+      <c r="M91">
+        <v>0.001434834809753535</v>
+      </c>
+    </row>
+    <row r="92" spans="1:13">
       <c r="A92" s="1" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="B92">
-        <v>-0.1039838836492967</v>
+        <v>0.1669549382609773</v>
       </c>
       <c r="C92">
-        <v>-0.3266607351972636</v>
+        <v>-0.3185243618560047</v>
       </c>
       <c r="D92">
-        <v>-0.07972697165931511</v>
+        <v>0.03062146702482796</v>
       </c>
       <c r="E92">
-        <v>-0.04795599035177756</v>
+        <v>-0.03419008930380125</v>
       </c>
       <c r="F92">
-        <v>0.008114477442535224</v>
+        <v>-0.05102535404083241</v>
       </c>
       <c r="G92">
-        <v>0.09265769795647627</v>
+        <v>0.01648652668459896</v>
       </c>
       <c r="H92">
-        <v>0.02204977974566618</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8">
+        <v>-0.03739954769666425</v>
+      </c>
+      <c r="I92">
+        <v>0.008986228925345868</v>
+      </c>
+      <c r="J92">
+        <v>0.0377700583057769</v>
+      </c>
+      <c r="K92">
+        <v>-0.03743005285439108</v>
+      </c>
+      <c r="L92">
+        <v>0.03815982079470303</v>
+      </c>
+      <c r="M92">
+        <v>-0.05719914224459582</v>
+      </c>
+    </row>
+    <row r="93" spans="1:13">
       <c r="A93" s="1" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="B93">
-        <v>-0.1103691590900923</v>
+        <v>0.1566214953354977</v>
       </c>
       <c r="C93">
-        <v>-0.2721246325130918</v>
+        <v>-0.2954412492967889</v>
       </c>
       <c r="D93">
-        <v>-0.05353489300626418</v>
+        <v>-0.03355953944528064</v>
       </c>
       <c r="E93">
-        <v>-0.02551373220723217</v>
+        <v>-0.005661703463159758</v>
       </c>
       <c r="F93">
-        <v>0.0281428512062512</v>
+        <v>-0.01137529085385306</v>
       </c>
       <c r="G93">
-        <v>-0.01450047236641062</v>
+        <v>0.01139263026193399</v>
       </c>
       <c r="H93">
-        <v>-0.02888922423416123</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8">
+        <v>0.05025353539968359</v>
+      </c>
+      <c r="I93">
+        <v>-0.001593745165891032</v>
+      </c>
+      <c r="J93">
+        <v>-0.02061728144968538</v>
+      </c>
+      <c r="K93">
+        <v>-0.02221388565663735</v>
+      </c>
+      <c r="L93">
+        <v>0.006993758297005042</v>
+      </c>
+      <c r="M93">
+        <v>0.02085503788440017</v>
+      </c>
+    </row>
+    <row r="94" spans="1:13">
       <c r="A94" s="1" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="B94">
-        <v>-0.09780961383854994</v>
+        <v>0.116840238062989</v>
       </c>
       <c r="C94">
-        <v>0.0502371963111712</v>
+        <v>0.06567045188176135</v>
       </c>
       <c r="D94">
-        <v>-0.007320023262410723</v>
+        <v>0.006753584652968304</v>
       </c>
       <c r="E94">
-        <v>0.01601141910949102</v>
+        <v>-0.02116950070915534</v>
       </c>
       <c r="F94">
-        <v>-0.1555362518863116</v>
+        <v>0.043220942721317</v>
       </c>
       <c r="G94">
-        <v>0.06469360913985925</v>
+        <v>0.094722817364694</v>
       </c>
       <c r="H94">
-        <v>0.06988006349847539</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8">
+        <v>-0.1031050090076621</v>
+      </c>
+      <c r="I94">
+        <v>0.08804941147622874</v>
+      </c>
+      <c r="J94">
+        <v>-0.029756191961851</v>
+      </c>
+      <c r="K94">
+        <v>0.01168145098981847</v>
+      </c>
+      <c r="L94">
+        <v>0.04685366010577569</v>
+      </c>
+      <c r="M94">
+        <v>-0.0276668062621277</v>
+      </c>
+    </row>
+    <row r="95" spans="1:13">
       <c r="A95" s="1" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="B95">
-        <v>-0.121267268316069</v>
+        <v>0.1186065003828522</v>
       </c>
       <c r="C95">
-        <v>0.07608015430261725</v>
+        <v>0.07360122197240594</v>
       </c>
       <c r="D95">
-        <v>-0.06049207428418586</v>
+        <v>0.004895548128985953</v>
       </c>
       <c r="E95">
-        <v>-0.04729784777064133</v>
+        <v>-0.07632451796817755</v>
       </c>
       <c r="F95">
-        <v>0.06294508031685934</v>
+        <v>-0.08006101484495751</v>
       </c>
       <c r="G95">
-        <v>-0.05244245122821221</v>
+        <v>-0.1268558812775965</v>
       </c>
       <c r="H95">
-        <v>0.1321956741516093</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8">
+        <v>0.2103546552485558</v>
+      </c>
+      <c r="I95">
+        <v>-0.02672077997092185</v>
+      </c>
+      <c r="J95">
+        <v>-0.0705164868325459</v>
+      </c>
+      <c r="K95">
+        <v>-0.1071170221575807</v>
+      </c>
+      <c r="L95">
+        <v>-0.009319035175138315</v>
+      </c>
+      <c r="M95">
+        <v>-0.5831496317458482</v>
+      </c>
+    </row>
+    <row r="96" spans="1:13">
       <c r="A96" s="1" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="B96">
-        <v>0</v>
+        <v>-0.002288501960655344</v>
       </c>
       <c r="C96">
-        <v>0</v>
+        <v>0.005892735912577323</v>
       </c>
       <c r="D96">
-        <v>0</v>
+        <v>0.001077213623903888</v>
       </c>
       <c r="E96">
-        <v>0</v>
+        <v>0.0002679179094724097</v>
       </c>
       <c r="F96">
-        <v>0</v>
+        <v>-0.005709693885858341</v>
       </c>
       <c r="G96">
-        <v>0</v>
+        <v>-0.01767529511569285</v>
       </c>
       <c r="H96">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8">
+        <v>-0.01458119927157393</v>
+      </c>
+      <c r="I96">
+        <v>-0.008211861452843154</v>
+      </c>
+      <c r="J96">
+        <v>0.002530868762830437</v>
+      </c>
+      <c r="K96">
+        <v>0.008753639803489796</v>
+      </c>
+      <c r="L96">
+        <v>-0.004101449752307723</v>
+      </c>
+      <c r="M96">
+        <v>0.0112611155284901</v>
+      </c>
+    </row>
+    <row r="97" spans="1:13">
       <c r="A97" s="1" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="B97">
-        <v>-0.2209118425549289</v>
+        <v>0.173510944747419</v>
       </c>
       <c r="C97">
-        <v>-0.1337322732676916</v>
+        <v>0.03176616408149856</v>
       </c>
       <c r="D97">
-        <v>0.9015189864549422</v>
+        <v>0.2719226731466004</v>
       </c>
       <c r="E97">
-        <v>0.03448432539194757</v>
+        <v>0.8957373957076515</v>
       </c>
       <c r="F97">
-        <v>0.09678387630825316</v>
+        <v>0.05363277013638813</v>
       </c>
       <c r="G97">
-        <v>-0.003296186695682305</v>
+        <v>-0.1109002687319191</v>
       </c>
       <c r="H97">
-        <v>-0.02092322710703719</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8">
+        <v>0.1257783450748007</v>
+      </c>
+      <c r="I97">
+        <v>0.03812212241241154</v>
+      </c>
+      <c r="J97">
+        <v>0.05925633061721759</v>
+      </c>
+      <c r="K97">
+        <v>-0.010143656282889</v>
+      </c>
+      <c r="L97">
+        <v>-0.02000001763695827</v>
+      </c>
+      <c r="M97">
+        <v>-0.008532908999212205</v>
+      </c>
+    </row>
+    <row r="98" spans="1:13">
       <c r="A98" s="1" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="B98">
-        <v>-0.2967009343733549</v>
+        <v>0.2539011901427585</v>
       </c>
       <c r="C98">
-        <v>0.0978289041847277</v>
+        <v>0.1045134906575744</v>
       </c>
       <c r="D98">
-        <v>-0.09426327337919299</v>
+        <v>0.007840532784130062</v>
       </c>
       <c r="E98">
-        <v>0.1919850641668237</v>
+        <v>-0.04200510265444871</v>
       </c>
       <c r="F98">
-        <v>0.2697250752501785</v>
+        <v>0.3621431573285276</v>
       </c>
       <c r="G98">
-        <v>0.32487578464342</v>
+        <v>-0.2348229499293597</v>
       </c>
       <c r="H98">
-        <v>-0.306946162599407</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8">
+        <v>-0.06625135837910504</v>
+      </c>
+      <c r="I98">
+        <v>-0.2235894679891801</v>
+      </c>
+      <c r="J98">
+        <v>0.1182033385477472</v>
+      </c>
+      <c r="K98">
+        <v>-0.477280625743532</v>
+      </c>
+      <c r="L98">
+        <v>-0.2805564355492259</v>
+      </c>
+      <c r="M98">
+        <v>0.06547415215267037</v>
+      </c>
+    </row>
+    <row r="99" spans="1:13">
       <c r="A99" s="1" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="B99">
-        <v>-0.07296110923669631</v>
+        <v>0.06405483469192932</v>
       </c>
       <c r="C99">
-        <v>0.04933887697702396</v>
+        <v>0.04162362563276235</v>
       </c>
       <c r="D99">
-        <v>-0.01922433626137051</v>
+        <v>-0.004397481295819636</v>
       </c>
       <c r="E99">
-        <v>0.001926791778514831</v>
+        <v>-0.04286717931286977</v>
       </c>
       <c r="F99">
-        <v>-0.02855102719523648</v>
+        <v>0.006290038108429295</v>
       </c>
       <c r="G99">
-        <v>-0.04499677317232562</v>
+        <v>0.0232864744422627</v>
       </c>
       <c r="H99">
-        <v>0.009141983313931812</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8">
+        <v>-0.03580438118127185</v>
+      </c>
+      <c r="I99">
+        <v>0.009173104230572798</v>
+      </c>
+      <c r="J99">
+        <v>0.02671644493270011</v>
+      </c>
+      <c r="K99">
+        <v>0.02320931449768507</v>
+      </c>
+      <c r="L99">
+        <v>-0.01747955558817961</v>
+      </c>
+      <c r="M99">
+        <v>-0.02315129748069109</v>
+      </c>
+    </row>
+    <row r="100" spans="1:13">
       <c r="A100" s="1" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="B100">
-        <v>0</v>
+        <v>-0.0002886327349725518</v>
       </c>
       <c r="C100">
-        <v>0</v>
+        <v>-0.00848282172194713</v>
       </c>
       <c r="D100">
-        <v>0</v>
+        <v>0.01270302722057103</v>
       </c>
       <c r="E100">
-        <v>0</v>
+        <v>0.05140389200590001</v>
       </c>
       <c r="F100">
-        <v>0</v>
+        <v>-0.03967969665643405</v>
       </c>
       <c r="G100">
-        <v>0</v>
+        <v>0.02146492476062308</v>
       </c>
       <c r="H100">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8">
+        <v>-0.009055329053709045</v>
+      </c>
+      <c r="I100">
+        <v>-0.05011970861095118</v>
+      </c>
+      <c r="J100">
+        <v>-0.003064734735587795</v>
+      </c>
+      <c r="K100">
+        <v>-0.05968025728858709</v>
+      </c>
+      <c r="L100">
+        <v>-0.01831669561847622</v>
+      </c>
+      <c r="M100">
+        <v>-0.02347599523256726</v>
+      </c>
+    </row>
+    <row r="101" spans="1:13">
       <c r="A101" s="1" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="B101">
-        <v>-0.05390016102556342</v>
+        <v>0.03813302666001071</v>
       </c>
       <c r="C101">
-        <v>0.006497274638269538</v>
+        <v>0.02296476155794773</v>
       </c>
       <c r="D101">
-        <v>-0.00791971985155814</v>
+        <v>-0.01002459089790073</v>
       </c>
       <c r="E101">
-        <v>-0.03580298644358471</v>
+        <v>-0.008401192015141577</v>
       </c>
       <c r="F101">
-        <v>-0.02358186396551368</v>
+        <v>-0.06680986932156442</v>
       </c>
       <c r="G101">
-        <v>0.001984052502598305</v>
+        <v>0.03484107020777644</v>
       </c>
       <c r="H101">
-        <v>-0.005047149410327694</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8">
+        <v>-0.005751905942399451</v>
+      </c>
+      <c r="I101">
+        <v>-0.01491347113718783</v>
+      </c>
+      <c r="J101">
+        <v>-0.02661177616165744</v>
+      </c>
+      <c r="K101">
+        <v>-0.09615457223736774</v>
+      </c>
+      <c r="L101">
+        <v>0.01924114003685478</v>
+      </c>
+      <c r="M101">
+        <v>0.00534204448459611</v>
+      </c>
+    </row>
+    <row r="102" spans="1:13">
       <c r="A102" s="1" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -3355,10 +4885,25 @@
       <c r="H102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:8">
+      <c r="I102">
+        <v>0</v>
+      </c>
+      <c r="J102">
+        <v>0</v>
+      </c>
+      <c r="K102">
+        <v>0</v>
+      </c>
+      <c r="L102">
+        <v>0</v>
+      </c>
+      <c r="M102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:13">
       <c r="A103" s="1" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -3381,10 +4926,25 @@
       <c r="H103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:8">
+      <c r="I103">
+        <v>0</v>
+      </c>
+      <c r="J103">
+        <v>0</v>
+      </c>
+      <c r="K103">
+        <v>0</v>
+      </c>
+      <c r="L103">
+        <v>0</v>
+      </c>
+      <c r="M103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:13">
       <c r="A104" s="1" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -3405,6 +4965,21 @@
         <v>0</v>
       </c>
       <c r="H104">
+        <v>0</v>
+      </c>
+      <c r="I104">
+        <v>0</v>
+      </c>
+      <c r="J104">
+        <v>0</v>
+      </c>
+      <c r="K104">
+        <v>0</v>
+      </c>
+      <c r="L104">
+        <v>0</v>
+      </c>
+      <c r="M104">
         <v>0</v>
       </c>
     </row>
